--- a/4502 Takeda.xlsx
+++ b/4502 Takeda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38DFFBD-C6E8-4249-A8D9-8DF9FB471431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47EEA6-C08B-4E86-9414-CB154E40AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42975" yWindow="2265" windowWidth="33195" windowHeight="17940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38530" yWindow="1360" windowWidth="17220" windowHeight="14080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="11" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="547">
   <si>
     <t>Name</t>
   </si>
@@ -2008,6 +2008,9 @@
   </si>
   <si>
     <t>Other Vaccines</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -2489,14 +2492,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>39413</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>61309</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>39413</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>61309</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2513,8 +2516,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42409241" y="0"/>
-          <a:ext cx="0" cy="18583603"/>
+          <a:off x="49652619" y="0"/>
+          <a:ext cx="0" cy="18638345"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2899,22 +2902,22 @@
       <selection activeCell="B41" sqref="B41:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>91</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>150</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>153</v>
       </c>
@@ -2960,12 +2963,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="56" t="s">
         <v>30</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="55" t="s">
         <v>400</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>465</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>146</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>223</v>
       </c>
@@ -3038,7 +3041,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="56" t="s">
         <v>480</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>291</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="56" t="s">
         <v>477</v>
       </c>
@@ -3088,7 +3091,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>194</v>
       </c>
@@ -3101,14 +3104,14 @@
       <c r="E15" s="41"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="C16" s="26"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
         <v>156</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="56" t="s">
         <v>471</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="56" t="s">
         <v>472</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="56" t="s">
         <v>108</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="56" t="s">
         <v>475</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="56" t="s">
         <v>476</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="56" t="s">
         <v>478</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="56" t="s">
         <v>479</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="56" t="s">
         <v>481</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="56" t="s">
         <v>483</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
         <v>170</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
         <v>175</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="56" t="s">
         <v>485</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="56" t="s">
         <v>486</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
         <v>179</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
         <v>182</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
         <v>180</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
         <v>174</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="56" t="s">
         <v>489</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="56" t="s">
         <v>491</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>183</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
@@ -3517,18 +3520,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>134</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>132</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>54</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>140</v>
       </c>
@@ -3584,18 +3587,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
         <v>138</v>
       </c>
@@ -3614,18 +3617,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -3633,12 +3636,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -3667,139 +3670,139 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="27" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="27" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="27" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>279</v>
       </c>
@@ -3814,27 +3817,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3858,10 +3861,10 @@
         <v>293</v>
       </c>
       <c r="K2" s="47">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>129</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>6798477</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>143</v>
       </c>
@@ -3957,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
@@ -3984,13 +3987,13 @@
         <v>51</v>
       </c>
       <c r="K7" s="14">
-        <v>4091300</v>
+        <v>3975500</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>189</v>
       </c>
@@ -4011,10 +4014,10 @@
       </c>
       <c r="K8" s="14">
         <f>K5-K6+K7</f>
-        <v>10889777</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+        <v>10773977</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>344</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="56" t="s">
         <v>535</v>
       </c>
@@ -4040,7 +4043,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="56" t="s">
         <v>488</v>
       </c>
@@ -4057,7 +4060,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>392</v>
       </c>
@@ -4074,7 +4077,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>289</v>
       </c>
@@ -4091,7 +4094,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>236</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="56" t="s">
         <v>149</v>
       </c>
@@ -4151,7 +4154,7 @@
       <c r="H16" s="8"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="56" t="s">
         <v>396</v>
       </c>
@@ -4169,7 +4172,7 @@
       <c r="H17" s="8"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="56" t="s">
         <v>456</v>
       </c>
@@ -4182,7 +4185,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="56" t="s">
         <v>459</v>
       </c>
@@ -4195,7 +4198,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="56" t="s">
         <v>457</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="56" t="s">
         <v>461</v>
       </c>
@@ -4221,7 +4224,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="56" t="s">
         <v>454</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="56" t="s">
         <v>463</v>
       </c>
@@ -4247,7 +4250,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="56" t="s">
         <v>482</v>
       </c>
@@ -4264,7 +4267,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="56" t="s">
         <v>401</v>
       </c>
@@ -4281,7 +4284,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>395</v>
       </c>
@@ -4298,7 +4301,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4310,7 +4313,7 @@
       <c r="H27" s="4"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="56" t="s">
         <v>462</v>
       </c>
@@ -4331,7 +4334,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="56" t="s">
         <v>444</v>
       </c>
@@ -4350,7 +4353,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="56" t="s">
         <v>448</v>
       </c>
@@ -4365,7 +4368,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="56" t="s">
         <v>517</v>
       </c>
@@ -4380,7 +4383,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="56" t="s">
         <v>498</v>
       </c>
@@ -4395,7 +4398,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="56" t="s">
         <v>515</v>
       </c>
@@ -4414,7 +4417,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="56" t="s">
         <v>520</v>
       </c>
@@ -4429,7 +4432,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="56" t="s">
         <v>504</v>
       </c>
@@ -4448,7 +4451,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="56" t="s">
         <v>501</v>
       </c>
@@ -4467,7 +4470,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="56" t="s">
         <v>450</v>
       </c>
@@ -4486,7 +4489,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="56" t="s">
         <v>506</v>
       </c>
@@ -4505,7 +4508,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="56" t="s">
         <v>510</v>
       </c>
@@ -4524,7 +4527,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="56" t="s">
         <v>521</v>
       </c>
@@ -4541,7 +4544,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="56" t="s">
         <v>524</v>
       </c>
@@ -4556,7 +4559,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="56" t="s">
         <v>526</v>
       </c>
@@ -4571,7 +4574,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="56" t="s">
         <v>531</v>
       </c>
@@ -4586,7 +4589,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="56" t="s">
         <v>529</v>
       </c>
@@ -4601,7 +4604,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="56" t="s">
         <v>533</v>
       </c>
@@ -4616,7 +4619,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="56" t="s">
         <v>440</v>
       </c>
@@ -4635,7 +4638,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="63" t="s">
         <v>494</v>
       </c>
@@ -4652,22 +4655,22 @@
       <c r="G47" s="9"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F49" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F50" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F51" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F52" s="19" t="s">
         <v>290</v>
       </c>
@@ -4692,37 +4695,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DX153"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BU91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="CB87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BZ110" sqref="BZ110"/>
+      <selection pane="bottomRight" activeCell="CH94" sqref="CH94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="41" width="9.140625" style="30"/>
-    <col min="42" max="49" width="8.85546875" style="30" hidden="1" customWidth="1"/>
-    <col min="50" max="68" width="8.85546875" style="30" customWidth="1"/>
-    <col min="69" max="76" width="9.5703125" style="30" customWidth="1"/>
-    <col min="77" max="85" width="9.42578125" style="30" customWidth="1"/>
-    <col min="86" max="89" width="8.85546875" style="30" customWidth="1"/>
-    <col min="90" max="95" width="9.7109375" style="30" customWidth="1"/>
-    <col min="96" max="96" width="8.85546875" style="30" customWidth="1"/>
-    <col min="97" max="98" width="9.7109375" style="30" customWidth="1"/>
-    <col min="99" max="101" width="9.7109375" style="1" customWidth="1"/>
-    <col min="102" max="106" width="10.5703125" style="1" customWidth="1"/>
-    <col min="107" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" customWidth="1"/>
+    <col min="3" max="41" width="9.1796875" style="30"/>
+    <col min="42" max="49" width="8.81640625" style="30" hidden="1" customWidth="1"/>
+    <col min="50" max="68" width="8.81640625" style="30" customWidth="1"/>
+    <col min="69" max="76" width="9.54296875" style="30" customWidth="1"/>
+    <col min="77" max="85" width="9.453125" style="30" customWidth="1"/>
+    <col min="86" max="89" width="8.81640625" style="30" customWidth="1"/>
+    <col min="90" max="95" width="9.7265625" style="30" customWidth="1"/>
+    <col min="96" max="96" width="8.81640625" style="30" customWidth="1"/>
+    <col min="97" max="98" width="9.7265625" style="30" customWidth="1"/>
+    <col min="99" max="101" width="9.7265625" style="1" customWidth="1"/>
+    <col min="102" max="106" width="10.54296875" style="1" customWidth="1"/>
+    <col min="107" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="CB1" s="30">
+        <v>144</v>
+      </c>
+      <c r="CF1" s="30">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="F2" s="30" t="s">
         <v>235</v>
       </c>
@@ -4939,6 +4948,12 @@
       <c r="CG2" s="53" t="s">
         <v>540</v>
       </c>
+      <c r="CH2" s="30">
+        <v>2023</v>
+      </c>
+      <c r="CI2" s="30">
+        <v>2024</v>
+      </c>
       <c r="CL2" s="30" t="s">
         <v>242</v>
       </c>
@@ -5027,7 +5042,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="C3" s="31">
         <v>38961</v>
       </c>
@@ -5369,7 +5384,7 @@
         <v>50130</v>
       </c>
     </row>
-    <row r="4" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="55" t="s">
         <v>88</v>
       </c>
@@ -5601,7 +5616,7 @@
         <v>107400</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -5761,7 +5776,7 @@
       <c r="CP5" s="34"/>
       <c r="CQ5" s="34"/>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
@@ -5918,7 +5933,7 @@
       <c r="CP6" s="34"/>
       <c r="CQ6" s="34"/>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>113</v>
       </c>
@@ -6075,7 +6090,7 @@
       <c r="CP7" s="34"/>
       <c r="CQ7" s="34"/>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>114</v>
       </c>
@@ -6232,7 +6247,7 @@
       <c r="CP8" s="34"/>
       <c r="CQ8" s="34"/>
     </row>
-    <row r="9" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:118" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>236</v>
       </c>
@@ -6419,7 +6434,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="10" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="55" t="s">
         <v>87</v>
       </c>
@@ -6615,7 +6630,7 @@
       <c r="CZ10" s="62"/>
       <c r="DA10" s="62"/>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
@@ -6769,7 +6784,7 @@
       <c r="CZ11" s="62"/>
       <c r="DA11" s="62"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>112</v>
       </c>
@@ -6923,7 +6938,7 @@
       <c r="CZ12" s="62"/>
       <c r="DA12" s="62"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>113</v>
       </c>
@@ -7077,7 +7092,7 @@
       <c r="CZ13" s="62"/>
       <c r="DA13" s="62"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
@@ -7231,7 +7246,7 @@
       <c r="CZ14" s="62"/>
       <c r="DA14" s="62"/>
     </row>
-    <row r="15" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="55" t="s">
         <v>17</v>
       </c>
@@ -7430,7 +7445,7 @@
       <c r="CZ15" s="62"/>
       <c r="DA15" s="62"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
@@ -7584,7 +7599,7 @@
       <c r="CZ16" s="62"/>
       <c r="DA16" s="62"/>
     </row>
-    <row r="17" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>112</v>
       </c>
@@ -7738,7 +7753,7 @@
       <c r="CZ17" s="62"/>
       <c r="DA17" s="62"/>
     </row>
-    <row r="18" spans="2:105" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:105" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="55" t="s">
         <v>18</v>
       </c>
@@ -7937,7 +7952,7 @@
       <c r="CZ18" s="62"/>
       <c r="DA18" s="62"/>
     </row>
-    <row r="19" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>110</v>
       </c>
@@ -8100,7 +8115,7 @@
       <c r="CZ19" s="62"/>
       <c r="DA19" s="62"/>
     </row>
-    <row r="20" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
@@ -8263,7 +8278,7 @@
       <c r="CZ20" s="62"/>
       <c r="DA20" s="62"/>
     </row>
-    <row r="21" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
@@ -8426,7 +8441,7 @@
       <c r="CZ21" s="62"/>
       <c r="DA21" s="62"/>
     </row>
-    <row r="22" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
@@ -8586,7 +8601,7 @@
       <c r="CZ22" s="62"/>
       <c r="DA22" s="62"/>
     </row>
-    <row r="23" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
@@ -8750,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
@@ -8921,7 +8936,7 @@
       <c r="CZ24" s="62"/>
       <c r="DA24" s="62"/>
     </row>
-    <row r="25" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
@@ -9023,7 +9038,7 @@
       <c r="CZ25" s="62"/>
       <c r="DA25" s="62"/>
     </row>
-    <row r="26" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
@@ -9145,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
@@ -9259,7 +9274,7 @@
       <c r="CZ27" s="62"/>
       <c r="DA27" s="62"/>
     </row>
-    <row r="28" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>248</v>
       </c>
@@ -9367,7 +9382,7 @@
       <c r="CZ28" s="62"/>
       <c r="DA28" s="62"/>
     </row>
-    <row r="29" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -9475,7 +9490,7 @@
       <c r="CZ29" s="62"/>
       <c r="DA29" s="62"/>
     </row>
-    <row r="30" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
         <v>186</v>
       </c>
@@ -9581,7 +9596,7 @@
       <c r="CZ30" s="62"/>
       <c r="DA30" s="62"/>
     </row>
-    <row r="31" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>115</v>
       </c>
@@ -9653,7 +9668,7 @@
       <c r="CZ31" s="62"/>
       <c r="DA31" s="62"/>
     </row>
-    <row r="32" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>203</v>
       </c>
@@ -9723,7 +9738,7 @@
       <c r="CZ32" s="62"/>
       <c r="DA32" s="62"/>
     </row>
-    <row r="33" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
         <v>145</v>
       </c>
@@ -9829,7 +9844,7 @@
       <c r="CZ33" s="62"/>
       <c r="DA33" s="62"/>
     </row>
-    <row r="34" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>116</v>
       </c>
@@ -9937,7 +9952,7 @@
       <c r="CZ34" s="62"/>
       <c r="DA34" s="62"/>
     </row>
-    <row r="35" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>117</v>
       </c>
@@ -10023,7 +10038,7 @@
       <c r="CZ35" s="62"/>
       <c r="DA35" s="62"/>
     </row>
-    <row r="36" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
@@ -10131,7 +10146,7 @@
       <c r="CZ36" s="62"/>
       <c r="DA36" s="62"/>
     </row>
-    <row r="37" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>204</v>
       </c>
@@ -10205,7 +10220,7 @@
       <c r="CZ37" s="62"/>
       <c r="DA37" s="62"/>
     </row>
-    <row r="38" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
@@ -10313,7 +10328,7 @@
       <c r="CZ38" s="62"/>
       <c r="DA38" s="62"/>
     </row>
-    <row r="39" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>120</v>
       </c>
@@ -10407,7 +10422,7 @@
       <c r="CZ39" s="62"/>
       <c r="DA39" s="62"/>
     </row>
-    <row r="40" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
@@ -10465,7 +10480,7 @@
       <c r="CZ40" s="62"/>
       <c r="DA40" s="62"/>
     </row>
-    <row r="41" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
         <v>205</v>
       </c>
@@ -10612,7 +10627,7 @@
       <c r="CZ41" s="62"/>
       <c r="DA41" s="62"/>
     </row>
-    <row r="42" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
         <v>206</v>
       </c>
@@ -10744,7 +10759,7 @@
       <c r="CZ42" s="62"/>
       <c r="DA42" s="62"/>
     </row>
-    <row r="43" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
         <v>207</v>
       </c>
@@ -10876,7 +10891,7 @@
       <c r="CZ43" s="62"/>
       <c r="DA43" s="62"/>
     </row>
-    <row r="44" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
         <v>208</v>
       </c>
@@ -11008,7 +11023,7 @@
       <c r="CZ44" s="62"/>
       <c r="DA44" s="62"/>
     </row>
-    <row r="45" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
         <v>209</v>
       </c>
@@ -11150,7 +11165,7 @@
       <c r="CZ45" s="62"/>
       <c r="DA45" s="62"/>
     </row>
-    <row r="46" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
         <v>387</v>
       </c>
@@ -11265,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
         <v>386</v>
       </c>
@@ -11364,9 +11379,15 @@
       <c r="CD47" s="34">
         <v>1800</v>
       </c>
-      <c r="CE47" s="34"/>
-      <c r="CF47" s="34"/>
-      <c r="CG47" s="34"/>
+      <c r="CE47" s="34">
+        <v>2200</v>
+      </c>
+      <c r="CF47" s="34">
+        <v>2000</v>
+      </c>
+      <c r="CG47" s="34">
+        <v>2000</v>
+      </c>
       <c r="CH47" s="34"/>
       <c r="CI47" s="34"/>
       <c r="CJ47" s="34"/>
@@ -11390,7 +11411,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="48" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
         <v>385</v>
       </c>
@@ -11505,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
         <v>384</v>
       </c>
@@ -11604,9 +11625,15 @@
       <c r="CD49" s="34">
         <v>3200</v>
       </c>
-      <c r="CE49" s="34"/>
-      <c r="CF49" s="34"/>
-      <c r="CG49" s="34"/>
+      <c r="CE49" s="34">
+        <v>2600</v>
+      </c>
+      <c r="CF49" s="34">
+        <v>2900</v>
+      </c>
+      <c r="CG49" s="34">
+        <v>3000</v>
+      </c>
       <c r="CH49" s="34"/>
       <c r="CI49" s="34"/>
       <c r="CJ49" s="34"/>
@@ -11630,7 +11657,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="50" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B50" s="55" t="s">
         <v>463</v>
       </c>
@@ -11713,9 +11740,16 @@
       <c r="CD50" s="34">
         <v>9500</v>
       </c>
-      <c r="CE50" s="34"/>
-      <c r="CF50" s="34"/>
-      <c r="CG50" s="34"/>
+      <c r="CE50" s="34">
+        <v>10400</v>
+      </c>
+      <c r="CF50" s="34">
+        <v>10100</v>
+      </c>
+      <c r="CG50" s="34">
+        <f>35600-CF50-CE50-CD50</f>
+        <v>5600</v>
+      </c>
       <c r="CH50" s="34"/>
       <c r="CI50" s="34"/>
       <c r="CJ50" s="34"/>
@@ -11730,7 +11764,7 @@
       <c r="CZ50" s="62"/>
       <c r="DA50" s="62"/>
     </row>
-    <row r="51" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B51" s="55" t="s">
         <v>545</v>
       </c>
@@ -11813,9 +11847,16 @@
       <c r="CD51" s="34">
         <v>3000</v>
       </c>
-      <c r="CE51" s="34"/>
-      <c r="CF51" s="34"/>
-      <c r="CG51" s="34"/>
+      <c r="CE51" s="34">
+        <v>15200</v>
+      </c>
+      <c r="CF51" s="34">
+        <v>1700</v>
+      </c>
+      <c r="CG51" s="34">
+        <f>19800-CF51-CE51-CD51</f>
+        <v>-100</v>
+      </c>
       <c r="CH51" s="34"/>
       <c r="CI51" s="34"/>
       <c r="CJ51" s="34"/>
@@ -11830,7 +11871,7 @@
       <c r="CZ51" s="62"/>
       <c r="DA51" s="62"/>
     </row>
-    <row r="52" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
         <v>383</v>
       </c>
@@ -11929,9 +11970,16 @@
       <c r="CD52" s="34">
         <v>5500</v>
       </c>
-      <c r="CE52" s="34"/>
-      <c r="CF52" s="34"/>
-      <c r="CG52" s="34"/>
+      <c r="CE52" s="34">
+        <v>5200</v>
+      </c>
+      <c r="CF52" s="34">
+        <v>5500</v>
+      </c>
+      <c r="CG52" s="34">
+        <f>20700-CF52-CE52-CD52</f>
+        <v>4500</v>
+      </c>
       <c r="CH52" s="34"/>
       <c r="CI52" s="34"/>
       <c r="CJ52" s="34"/>
@@ -11955,7 +12003,7 @@
         <v>23700</v>
       </c>
     </row>
-    <row r="53" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B53" s="23" t="s">
         <v>382</v>
       </c>
@@ -12054,9 +12102,16 @@
       <c r="CD53" s="34">
         <v>7700</v>
       </c>
-      <c r="CE53" s="34"/>
-      <c r="CF53" s="34"/>
-      <c r="CG53" s="34"/>
+      <c r="CE53" s="34">
+        <v>9100</v>
+      </c>
+      <c r="CF53" s="34">
+        <v>7100</v>
+      </c>
+      <c r="CG53" s="34">
+        <f>28400-CF53-CE53-CD53</f>
+        <v>4500</v>
+      </c>
       <c r="CH53" s="34"/>
       <c r="CI53" s="34"/>
       <c r="CJ53" s="34"/>
@@ -12080,7 +12135,7 @@
         <v>41700</v>
       </c>
     </row>
-    <row r="54" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B54" s="23" t="s">
         <v>381</v>
       </c>
@@ -12179,9 +12234,15 @@
       <c r="CD54" s="34">
         <v>10200</v>
       </c>
-      <c r="CE54" s="34"/>
-      <c r="CF54" s="34"/>
-      <c r="CG54" s="34"/>
+      <c r="CE54" s="34">
+        <v>9600</v>
+      </c>
+      <c r="CF54" s="34">
+        <v>10900</v>
+      </c>
+      <c r="CG54" s="34">
+        <v>9600</v>
+      </c>
       <c r="CH54" s="34"/>
       <c r="CI54" s="34"/>
       <c r="CJ54" s="34"/>
@@ -12205,7 +12266,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="55" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B55" s="23" t="s">
         <v>380</v>
       </c>
@@ -12304,11 +12365,24 @@
       <c r="CD55" s="34">
         <v>31000</v>
       </c>
-      <c r="CE55" s="34"/>
-      <c r="CF55" s="34"/>
-      <c r="CG55" s="34"/>
-      <c r="CH55" s="34"/>
-      <c r="CI55" s="34"/>
+      <c r="CE55" s="34">
+        <v>33100</v>
+      </c>
+      <c r="CF55" s="34">
+        <v>34000</v>
+      </c>
+      <c r="CG55" s="34">
+        <f>125700-CF55-CE55-CD55</f>
+        <v>27600</v>
+      </c>
+      <c r="CH55" s="34">
+        <f t="shared" ref="CH47:CH80" si="29">SUM(BY55:CB55)/$CB$1</f>
+        <v>698.61111111111109</v>
+      </c>
+      <c r="CI55" s="34">
+        <f t="shared" ref="CI49:CI96" si="30">SUM(CD55:CG55)/$CF$1</f>
+        <v>826.97368421052636</v>
+      </c>
       <c r="CJ55" s="34"/>
       <c r="CK55" s="34"/>
       <c r="CL55" s="34"/>
@@ -12330,7 +12404,7 @@
         <v>104800</v>
       </c>
     </row>
-    <row r="56" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B56" s="23" t="s">
         <v>379</v>
       </c>
@@ -12429,11 +12503,23 @@
       <c r="CD56" s="34">
         <v>114600</v>
       </c>
-      <c r="CE56" s="34"/>
-      <c r="CF56" s="34"/>
-      <c r="CG56" s="34"/>
-      <c r="CH56" s="34"/>
-      <c r="CI56" s="34"/>
+      <c r="CE56" s="34">
+        <v>88500</v>
+      </c>
+      <c r="CF56" s="34">
+        <v>84400</v>
+      </c>
+      <c r="CG56" s="34">
+        <v>63000</v>
+      </c>
+      <c r="CH56" s="34">
+        <f t="shared" si="29"/>
+        <v>3032.6388888888887</v>
+      </c>
+      <c r="CI56" s="34">
+        <f t="shared" si="30"/>
+        <v>2305.9210526315787</v>
+      </c>
       <c r="CJ56" s="34"/>
       <c r="CK56" s="34"/>
       <c r="CL56" s="34"/>
@@ -12455,7 +12541,7 @@
         <v>423200</v>
       </c>
     </row>
-    <row r="57" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B57" s="23" t="s">
         <v>378</v>
       </c>
@@ -12554,9 +12640,15 @@
       <c r="CD57" s="34">
         <v>3600</v>
       </c>
-      <c r="CE57" s="34"/>
-      <c r="CF57" s="34"/>
-      <c r="CG57" s="34"/>
+      <c r="CE57" s="34">
+        <v>3600</v>
+      </c>
+      <c r="CF57" s="34">
+        <v>4200</v>
+      </c>
+      <c r="CG57" s="34">
+        <v>5500</v>
+      </c>
       <c r="CH57" s="34"/>
       <c r="CI57" s="34"/>
       <c r="CJ57" s="34"/>
@@ -12580,7 +12672,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="58" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B58" s="23" t="s">
         <v>377</v>
       </c>
@@ -12683,19 +12775,19 @@
       <c r="CP58" s="34"/>
       <c r="CQ58" s="34"/>
       <c r="CY58" s="62">
-        <f t="shared" ref="CY58:CY75" si="29">SUM(BR58:BU58)</f>
+        <f t="shared" ref="CY58:CY75" si="31">SUM(BR58:BU58)</f>
         <v>900</v>
       </c>
       <c r="CZ58" s="62">
-        <f t="shared" ref="CZ58:CZ75" si="30">SUM(BV58:BY58)</f>
+        <f t="shared" ref="CZ58:CZ75" si="32">SUM(BV58:BY58)</f>
         <v>3700</v>
       </c>
       <c r="DA58" s="62">
-        <f t="shared" ref="DA58:DA75" si="31">SUM(BZ58:CC58)</f>
+        <f t="shared" ref="DA58:DA75" si="33">SUM(BZ58:CC58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B59" s="23" t="s">
         <v>376</v>
       </c>
@@ -12794,9 +12886,15 @@
       <c r="CD59" s="34">
         <v>2300</v>
       </c>
-      <c r="CE59" s="34"/>
-      <c r="CF59" s="34"/>
-      <c r="CG59" s="34"/>
+      <c r="CE59" s="34">
+        <v>2100</v>
+      </c>
+      <c r="CF59" s="34">
+        <v>2200</v>
+      </c>
+      <c r="CG59" s="34">
+        <v>1700</v>
+      </c>
       <c r="CH59" s="34"/>
       <c r="CI59" s="34"/>
       <c r="CJ59" s="34"/>
@@ -12808,19 +12906,19 @@
       <c r="CP59" s="34"/>
       <c r="CQ59" s="34"/>
       <c r="CY59" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6500</v>
       </c>
       <c r="CZ59" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7800</v>
       </c>
       <c r="DA59" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8400</v>
       </c>
     </row>
-    <row r="60" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B60" s="23" t="s">
         <v>375</v>
       </c>
@@ -12919,9 +13017,16 @@
       <c r="CD60" s="34">
         <v>3700</v>
       </c>
-      <c r="CE60" s="34"/>
-      <c r="CF60" s="34"/>
-      <c r="CG60" s="34"/>
+      <c r="CE60" s="34">
+        <v>3500</v>
+      </c>
+      <c r="CF60" s="34">
+        <v>3800</v>
+      </c>
+      <c r="CG60" s="34">
+        <f>14300-CF60-CE60-CD60</f>
+        <v>3300</v>
+      </c>
       <c r="CH60" s="34"/>
       <c r="CI60" s="34"/>
       <c r="CJ60" s="34"/>
@@ -12933,19 +13038,19 @@
       <c r="CP60" s="34"/>
       <c r="CQ60" s="34"/>
       <c r="CY60" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8000</v>
       </c>
       <c r="CZ60" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>12900</v>
       </c>
       <c r="DA60" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14200</v>
       </c>
     </row>
-    <row r="61" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B61" s="55" t="s">
         <v>544</v>
       </c>
@@ -13028,9 +13133,15 @@
       <c r="CD61" s="34">
         <v>11900</v>
       </c>
-      <c r="CE61" s="34"/>
-      <c r="CF61" s="34"/>
-      <c r="CG61" s="34"/>
+      <c r="CE61" s="34">
+        <v>11100</v>
+      </c>
+      <c r="CF61" s="34">
+        <v>13000</v>
+      </c>
+      <c r="CG61" s="34">
+        <v>11900</v>
+      </c>
       <c r="CH61" s="34"/>
       <c r="CI61" s="34"/>
       <c r="CJ61" s="34"/>
@@ -13045,7 +13156,7 @@
       <c r="CZ61" s="62"/>
       <c r="DA61" s="62"/>
     </row>
-    <row r="62" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B62" s="23" t="s">
         <v>374</v>
       </c>
@@ -13144,9 +13255,16 @@
       <c r="CD62" s="34">
         <v>9400</v>
       </c>
-      <c r="CE62" s="34"/>
-      <c r="CF62" s="34"/>
-      <c r="CG62" s="34"/>
+      <c r="CE62" s="34">
+        <v>8800</v>
+      </c>
+      <c r="CF62" s="34">
+        <v>9300</v>
+      </c>
+      <c r="CG62" s="34">
+        <f>36400-CF62-CE62-CD62</f>
+        <v>8900</v>
+      </c>
       <c r="CH62" s="34"/>
       <c r="CI62" s="34"/>
       <c r="CJ62" s="34"/>
@@ -13158,19 +13276,19 @@
       <c r="CP62" s="34"/>
       <c r="CQ62" s="34"/>
       <c r="CY62" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>13600</v>
       </c>
       <c r="CZ62" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>20600</v>
       </c>
       <c r="DA62" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>28500</v>
       </c>
     </row>
-    <row r="63" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B63" s="23" t="s">
         <v>373</v>
       </c>
@@ -13269,9 +13387,15 @@
       <c r="CD63" s="34">
         <v>6600</v>
       </c>
-      <c r="CE63" s="34"/>
-      <c r="CF63" s="34"/>
-      <c r="CG63" s="34"/>
+      <c r="CE63" s="34">
+        <v>6900</v>
+      </c>
+      <c r="CF63" s="34">
+        <v>7300</v>
+      </c>
+      <c r="CG63" s="34">
+        <v>5500</v>
+      </c>
       <c r="CH63" s="34"/>
       <c r="CI63" s="34"/>
       <c r="CJ63" s="34"/>
@@ -13283,19 +13407,19 @@
       <c r="CP63" s="34"/>
       <c r="CQ63" s="34"/>
       <c r="CY63" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>24700</v>
       </c>
       <c r="CZ63" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>25800</v>
       </c>
       <c r="DA63" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>26400</v>
       </c>
     </row>
-    <row r="64" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B64" s="23" t="s">
         <v>372</v>
       </c>
@@ -13394,11 +13518,24 @@
       <c r="CD64" s="34">
         <v>16800</v>
       </c>
-      <c r="CE64" s="34"/>
-      <c r="CF64" s="34"/>
-      <c r="CG64" s="34"/>
-      <c r="CH64" s="34"/>
-      <c r="CI64" s="34"/>
+      <c r="CE64" s="34">
+        <v>18600</v>
+      </c>
+      <c r="CF64" s="34">
+        <v>19400</v>
+      </c>
+      <c r="CG64" s="34">
+        <f>70700-CF64-CE64-CD64</f>
+        <v>15900</v>
+      </c>
+      <c r="CH64" s="34">
+        <f t="shared" si="29"/>
+        <v>368.75</v>
+      </c>
+      <c r="CI64" s="34">
+        <f t="shared" si="30"/>
+        <v>465.13157894736844</v>
+      </c>
       <c r="CJ64" s="34"/>
       <c r="CK64" s="34"/>
       <c r="CL64" s="34"/>
@@ -13408,19 +13545,19 @@
       <c r="CP64" s="34"/>
       <c r="CQ64" s="34"/>
       <c r="CY64" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34900</v>
       </c>
       <c r="CZ64" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>47300</v>
       </c>
       <c r="DA64" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>54600</v>
       </c>
     </row>
-    <row r="65" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B65" s="23" t="s">
         <v>371</v>
       </c>
@@ -13519,11 +13656,24 @@
       <c r="CD65" s="34">
         <v>34500</v>
       </c>
-      <c r="CE65" s="34"/>
-      <c r="CF65" s="34"/>
-      <c r="CG65" s="34"/>
-      <c r="CH65" s="34"/>
-      <c r="CI65" s="34"/>
+      <c r="CE65" s="34">
+        <v>33700</v>
+      </c>
+      <c r="CF65" s="34">
+        <v>31400</v>
+      </c>
+      <c r="CG65" s="34">
+        <f>129000-CF65-CE65-CD65</f>
+        <v>29400</v>
+      </c>
+      <c r="CH65" s="34">
+        <f t="shared" si="29"/>
+        <v>711.80555555555554</v>
+      </c>
+      <c r="CI65" s="34">
+        <f t="shared" si="30"/>
+        <v>848.68421052631584</v>
+      </c>
       <c r="CJ65" s="34"/>
       <c r="CK65" s="34"/>
       <c r="CL65" s="34"/>
@@ -13533,19 +13683,19 @@
       <c r="CP65" s="34"/>
       <c r="CQ65" s="34"/>
       <c r="CY65" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>69100</v>
       </c>
       <c r="CZ65" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>84100</v>
       </c>
       <c r="DA65" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>109500</v>
       </c>
     </row>
-    <row r="66" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B66" s="23" t="s">
         <v>370</v>
       </c>
@@ -13644,11 +13794,24 @@
       <c r="CD66" s="34">
         <v>23900</v>
       </c>
-      <c r="CE66" s="34"/>
-      <c r="CF66" s="34"/>
-      <c r="CG66" s="34"/>
-      <c r="CH66" s="34"/>
-      <c r="CI66" s="34"/>
+      <c r="CE66" s="34">
+        <v>23500</v>
+      </c>
+      <c r="CF66" s="34">
+        <v>24000</v>
+      </c>
+      <c r="CG66" s="34">
+        <f>91200-CF66-CE66-CD66</f>
+        <v>19800</v>
+      </c>
+      <c r="CH66" s="34">
+        <f t="shared" si="29"/>
+        <v>579.86111111111109</v>
+      </c>
+      <c r="CI66" s="34">
+        <f t="shared" si="30"/>
+        <v>600</v>
+      </c>
       <c r="CJ66" s="34"/>
       <c r="CK66" s="34"/>
       <c r="CL66" s="34"/>
@@ -13658,19 +13821,19 @@
       <c r="CP66" s="34"/>
       <c r="CQ66" s="34"/>
       <c r="CY66" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>91200</v>
       </c>
       <c r="CZ66" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>92700</v>
       </c>
       <c r="DA66" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>87300</v>
       </c>
     </row>
-    <row r="67" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B67" s="23" t="s">
         <v>369</v>
       </c>
@@ -13758,23 +13921,30 @@
         <v>12300</v>
       </c>
       <c r="CA67" s="34">
-        <f t="shared" ref="CA67" si="32">BW67</f>
+        <f t="shared" ref="CA67" si="34">BW67</f>
         <v>9100</v>
       </c>
       <c r="CB67" s="34">
-        <f t="shared" ref="CB67" si="33">BX67</f>
+        <f t="shared" ref="CB67" si="35">BX67</f>
         <v>9300</v>
       </c>
       <c r="CC67" s="34">
-        <f t="shared" ref="CC67" si="34">BY67</f>
+        <f t="shared" ref="CC67" si="36">BY67</f>
         <v>8400</v>
       </c>
       <c r="CD67" s="34">
         <v>13600</v>
       </c>
-      <c r="CE67" s="34"/>
-      <c r="CF67" s="34"/>
-      <c r="CG67" s="34"/>
+      <c r="CE67" s="34">
+        <v>14300</v>
+      </c>
+      <c r="CF67" s="34">
+        <v>12000</v>
+      </c>
+      <c r="CG67" s="34">
+        <f>52100-CF67-CE67-CD67</f>
+        <v>12200</v>
+      </c>
       <c r="CH67" s="34"/>
       <c r="CI67" s="34"/>
       <c r="CJ67" s="34"/>
@@ -13786,19 +13956,19 @@
       <c r="CP67" s="34"/>
       <c r="CQ67" s="34"/>
       <c r="CY67" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31000</v>
       </c>
       <c r="CZ67" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>34800</v>
       </c>
       <c r="DA67" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>39100</v>
       </c>
     </row>
-    <row r="68" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B68" s="23" t="s">
         <v>368</v>
       </c>
@@ -13897,11 +14067,23 @@
       <c r="CD68" s="34">
         <v>29400</v>
       </c>
-      <c r="CE68" s="34"/>
-      <c r="CF68" s="34"/>
-      <c r="CG68" s="34"/>
-      <c r="CH68" s="34"/>
-      <c r="CI68" s="34"/>
+      <c r="CE68" s="34">
+        <v>40900</v>
+      </c>
+      <c r="CF68" s="34">
+        <v>30900</v>
+      </c>
+      <c r="CG68" s="34">
+        <v>40100</v>
+      </c>
+      <c r="CH68" s="34">
+        <f t="shared" si="29"/>
+        <v>904.16666666666663</v>
+      </c>
+      <c r="CI68" s="34">
+        <f t="shared" si="30"/>
+        <v>929.60526315789468</v>
+      </c>
       <c r="CJ68" s="34"/>
       <c r="CK68" s="34"/>
       <c r="CL68" s="34"/>
@@ -13911,19 +14093,19 @@
       <c r="CP68" s="34"/>
       <c r="CQ68" s="34"/>
       <c r="CY68" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>90000</v>
       </c>
       <c r="CZ68" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>121400</v>
       </c>
       <c r="DA68" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>134000</v>
       </c>
     </row>
-    <row r="69" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B69" s="23" t="s">
         <v>367</v>
       </c>
@@ -14024,11 +14206,24 @@
       <c r="CD69" s="34">
         <v>201500</v>
       </c>
-      <c r="CE69" s="34"/>
-      <c r="CF69" s="34"/>
-      <c r="CG69" s="34"/>
-      <c r="CH69" s="34"/>
-      <c r="CI69" s="34"/>
+      <c r="CE69" s="34">
+        <v>189600</v>
+      </c>
+      <c r="CF69" s="34">
+        <v>185000</v>
+      </c>
+      <c r="CG69" s="34">
+        <f>757800-CF69-CE69-CD69</f>
+        <v>181700</v>
+      </c>
+      <c r="CH69" s="34">
+        <f t="shared" si="29"/>
+        <v>4287.5</v>
+      </c>
+      <c r="CI69" s="34">
+        <f t="shared" si="30"/>
+        <v>4985.5263157894733</v>
+      </c>
       <c r="CJ69" s="34"/>
       <c r="CK69" s="34"/>
       <c r="CL69" s="34"/>
@@ -14038,19 +14233,19 @@
       <c r="CP69" s="34"/>
       <c r="CQ69" s="34"/>
       <c r="CY69" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>385900</v>
       </c>
       <c r="CZ69" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>522200</v>
       </c>
       <c r="DA69" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>644600</v>
       </c>
     </row>
-    <row r="70" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B70" s="23" t="s">
         <v>366</v>
       </c>
@@ -14149,9 +14344,16 @@
       <c r="CD70" s="34">
         <v>9200</v>
       </c>
-      <c r="CE70" s="34"/>
-      <c r="CF70" s="34"/>
-      <c r="CG70" s="34"/>
+      <c r="CE70" s="34">
+        <v>10500</v>
+      </c>
+      <c r="CF70" s="34">
+        <v>8200</v>
+      </c>
+      <c r="CG70" s="34">
+        <f>34100-CF70-CE70-CD70</f>
+        <v>6200</v>
+      </c>
       <c r="CH70" s="34"/>
       <c r="CI70" s="34"/>
       <c r="CJ70" s="34"/>
@@ -14163,19 +14365,19 @@
       <c r="CP70" s="34"/>
       <c r="CQ70" s="34"/>
       <c r="CY70" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9600</v>
       </c>
       <c r="CZ70" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>13000</v>
       </c>
       <c r="DA70" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>35100</v>
       </c>
     </row>
-    <row r="71" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B71" s="23" t="s">
         <v>365</v>
       </c>
@@ -14274,9 +14476,16 @@
       <c r="CD71" s="34">
         <v>7600</v>
       </c>
-      <c r="CE71" s="34"/>
-      <c r="CF71" s="34"/>
-      <c r="CG71" s="34"/>
+      <c r="CE71" s="34">
+        <v>7900</v>
+      </c>
+      <c r="CF71" s="34">
+        <v>9000</v>
+      </c>
+      <c r="CG71" s="34">
+        <f>33000-CF71-CE71-CD71</f>
+        <v>8500</v>
+      </c>
       <c r="CH71" s="34"/>
       <c r="CI71" s="34"/>
       <c r="CJ71" s="34"/>
@@ -14288,19 +14497,19 @@
       <c r="CP71" s="34"/>
       <c r="CQ71" s="34"/>
       <c r="CY71" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1300</v>
       </c>
       <c r="CZ71" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10500</v>
       </c>
       <c r="DA71" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19100</v>
       </c>
     </row>
-    <row r="72" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B72" s="23" t="s">
         <v>364</v>
       </c>
@@ -14399,9 +14608,16 @@
       <c r="CD72" s="34">
         <v>4300</v>
       </c>
-      <c r="CE72" s="34"/>
-      <c r="CF72" s="34"/>
-      <c r="CG72" s="34"/>
+      <c r="CE72" s="34">
+        <v>3900</v>
+      </c>
+      <c r="CF72" s="34">
+        <v>4600</v>
+      </c>
+      <c r="CG72" s="34">
+        <f>16400-CF72-CE72-CD72</f>
+        <v>3600</v>
+      </c>
       <c r="CH72" s="34"/>
       <c r="CI72" s="34"/>
       <c r="CJ72" s="34"/>
@@ -14413,19 +14629,19 @@
       <c r="CP72" s="34"/>
       <c r="CQ72" s="34"/>
       <c r="CY72" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>19300</v>
       </c>
       <c r="CZ72" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>18500</v>
       </c>
       <c r="DA72" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>17100</v>
       </c>
     </row>
-    <row r="73" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
         <v>363</v>
       </c>
@@ -14524,9 +14740,15 @@
       <c r="CD73" s="34">
         <v>5000</v>
       </c>
-      <c r="CE73" s="34"/>
-      <c r="CF73" s="34"/>
-      <c r="CG73" s="34"/>
+      <c r="CE73" s="34">
+        <v>4800</v>
+      </c>
+      <c r="CF73" s="34">
+        <v>4300</v>
+      </c>
+      <c r="CG73" s="34">
+        <v>4000</v>
+      </c>
       <c r="CH73" s="34"/>
       <c r="CI73" s="34"/>
       <c r="CJ73" s="34"/>
@@ -14538,19 +14760,19 @@
       <c r="CP73" s="34"/>
       <c r="CQ73" s="34"/>
       <c r="CY73" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>26700</v>
       </c>
       <c r="CZ73" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24600</v>
       </c>
       <c r="DA73" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>21200</v>
       </c>
     </row>
-    <row r="74" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B74" s="55" t="s">
         <v>542</v>
       </c>
@@ -14633,9 +14855,15 @@
       <c r="CD74" s="34">
         <v>5300</v>
       </c>
-      <c r="CE74" s="34"/>
-      <c r="CF74" s="34"/>
-      <c r="CG74" s="34"/>
+      <c r="CE74" s="34">
+        <v>5100</v>
+      </c>
+      <c r="CF74" s="34">
+        <v>5100</v>
+      </c>
+      <c r="CG74" s="34">
+        <v>5500</v>
+      </c>
       <c r="CH74" s="34"/>
       <c r="CI74" s="34"/>
       <c r="CJ74" s="34"/>
@@ -14650,7 +14878,7 @@
       <c r="CZ74" s="62"/>
       <c r="DA74" s="62"/>
     </row>
-    <row r="75" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B75" s="23" t="s">
         <v>362</v>
       </c>
@@ -14749,9 +14977,16 @@
       <c r="CD75" s="34">
         <v>13700</v>
       </c>
-      <c r="CE75" s="34"/>
-      <c r="CF75" s="34"/>
-      <c r="CG75" s="34"/>
+      <c r="CE75" s="34">
+        <v>13300</v>
+      </c>
+      <c r="CF75" s="34">
+        <v>14300</v>
+      </c>
+      <c r="CG75" s="34">
+        <f>53500-CF75-CE75-CD75</f>
+        <v>12200</v>
+      </c>
       <c r="CH75" s="34"/>
       <c r="CI75" s="34"/>
       <c r="CJ75" s="34"/>
@@ -14763,19 +14998,19 @@
       <c r="CP75" s="34"/>
       <c r="CQ75" s="34"/>
       <c r="CY75" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>42400</v>
       </c>
       <c r="CZ75" s="62">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>48400</v>
       </c>
       <c r="DA75" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>51200</v>
       </c>
     </row>
-    <row r="76" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="s">
         <v>361</v>
       </c>
@@ -14874,11 +15109,23 @@
       <c r="CD76" s="34">
         <v>21400</v>
       </c>
-      <c r="CE76" s="34"/>
-      <c r="CF76" s="34"/>
-      <c r="CG76" s="34"/>
-      <c r="CH76" s="34"/>
-      <c r="CI76" s="34"/>
+      <c r="CE76" s="34">
+        <v>19900</v>
+      </c>
+      <c r="CF76" s="34">
+        <v>18900</v>
+      </c>
+      <c r="CG76" s="34">
+        <v>17600</v>
+      </c>
+      <c r="CH76" s="34">
+        <f t="shared" si="29"/>
+        <v>495.13888888888891</v>
+      </c>
+      <c r="CI76" s="34">
+        <f t="shared" si="30"/>
+        <v>511.84210526315792</v>
+      </c>
       <c r="CJ76" s="34"/>
       <c r="CK76" s="34"/>
       <c r="CL76" s="34"/>
@@ -14888,19 +15135,19 @@
       <c r="CP76" s="34"/>
       <c r="CQ76" s="34"/>
       <c r="CY76" s="62">
-        <f t="shared" ref="CY76:CY88" si="35">SUM(BR76:BU76)</f>
+        <f t="shared" ref="CY76:CY88" si="37">SUM(BR76:BU76)</f>
         <v>51700</v>
       </c>
       <c r="CZ76" s="62">
-        <f t="shared" ref="CZ76:CZ88" si="36">SUM(BV76:BY76)</f>
+        <f t="shared" ref="CZ76:CZ88" si="38">SUM(BV76:BY76)</f>
         <v>66800</v>
       </c>
       <c r="DA76" s="62">
-        <f t="shared" ref="DA76:DA88" si="37">SUM(BZ76:CC76)</f>
+        <f t="shared" ref="DA76:DA88" si="39">SUM(BZ76:CC76)</f>
         <v>73600</v>
       </c>
     </row>
-    <row r="77" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B77" s="23" t="s">
         <v>360</v>
       </c>
@@ -14999,11 +15246,24 @@
       <c r="CD77" s="34">
         <v>28000</v>
       </c>
-      <c r="CE77" s="34"/>
-      <c r="CF77" s="34"/>
-      <c r="CG77" s="34"/>
-      <c r="CH77" s="34"/>
-      <c r="CI77" s="34"/>
+      <c r="CE77" s="34">
+        <v>25100</v>
+      </c>
+      <c r="CF77" s="34">
+        <v>24000</v>
+      </c>
+      <c r="CG77" s="34">
+        <f>97200-CF77-CE77-CD77</f>
+        <v>20100</v>
+      </c>
+      <c r="CH77" s="34">
+        <f t="shared" si="29"/>
+        <v>626.38888888888891</v>
+      </c>
+      <c r="CI77" s="34">
+        <f t="shared" si="30"/>
+        <v>639.47368421052636</v>
+      </c>
       <c r="CJ77" s="34"/>
       <c r="CK77" s="34"/>
       <c r="CL77" s="34"/>
@@ -15013,19 +15273,19 @@
       <c r="CP77" s="34"/>
       <c r="CQ77" s="34"/>
       <c r="CY77" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>73100</v>
       </c>
       <c r="CZ77" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>85300</v>
       </c>
       <c r="DA77" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>91500</v>
       </c>
     </row>
-    <row r="78" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B78" s="23" t="s">
         <v>359</v>
       </c>
@@ -15124,11 +15384,23 @@
       <c r="CD78" s="34">
         <v>56000</v>
       </c>
-      <c r="CE78" s="34"/>
-      <c r="CF78" s="34"/>
-      <c r="CG78" s="34"/>
-      <c r="CH78" s="34"/>
-      <c r="CI78" s="34"/>
+      <c r="CE78" s="34">
+        <v>55000</v>
+      </c>
+      <c r="CF78" s="34">
+        <v>57000</v>
+      </c>
+      <c r="CG78" s="34">
+        <v>55100</v>
+      </c>
+      <c r="CH78" s="34">
+        <f t="shared" si="29"/>
+        <v>1189.5833333333333</v>
+      </c>
+      <c r="CI78" s="34">
+        <f t="shared" si="30"/>
+        <v>1467.7631578947369</v>
+      </c>
       <c r="CJ78" s="34"/>
       <c r="CK78" s="34"/>
       <c r="CL78" s="34"/>
@@ -15138,19 +15410,19 @@
       <c r="CP78" s="34"/>
       <c r="CQ78" s="34"/>
       <c r="CY78" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>103300</v>
       </c>
       <c r="CZ78" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>151800</v>
       </c>
       <c r="DA78" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>178600</v>
       </c>
     </row>
-    <row r="79" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
         <v>358</v>
       </c>
@@ -15249,9 +15521,16 @@
       <c r="CD79" s="34">
         <v>13600</v>
       </c>
-      <c r="CE79" s="34"/>
-      <c r="CF79" s="34"/>
-      <c r="CG79" s="34"/>
+      <c r="CE79" s="34">
+        <v>14300</v>
+      </c>
+      <c r="CF79" s="34">
+        <v>12000</v>
+      </c>
+      <c r="CG79" s="34">
+        <f>52100-CF79-CE79-CD79</f>
+        <v>12200</v>
+      </c>
       <c r="CH79" s="34"/>
       <c r="CI79" s="34"/>
       <c r="CJ79" s="34"/>
@@ -15263,19 +15542,19 @@
       <c r="CP79" s="34"/>
       <c r="CQ79" s="34"/>
       <c r="CY79" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>31300</v>
       </c>
       <c r="CZ79" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>41900</v>
       </c>
       <c r="DA79" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>47800</v>
       </c>
     </row>
-    <row r="80" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B80" s="23" t="s">
         <v>357</v>
       </c>
@@ -15378,19 +15657,19 @@
       <c r="CP80" s="34"/>
       <c r="CQ80" s="34"/>
       <c r="CY80" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4000</v>
       </c>
       <c r="CZ80" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4400</v>
       </c>
       <c r="DA80" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B81" s="23" t="s">
         <v>356</v>
       </c>
@@ -15489,9 +15768,15 @@
       <c r="CD81" s="34">
         <v>8700</v>
       </c>
-      <c r="CE81" s="34"/>
-      <c r="CF81" s="34"/>
-      <c r="CG81" s="34"/>
+      <c r="CE81" s="34">
+        <v>5800</v>
+      </c>
+      <c r="CF81" s="34">
+        <v>6800</v>
+      </c>
+      <c r="CG81" s="34">
+        <v>4200</v>
+      </c>
       <c r="CH81" s="34"/>
       <c r="CI81" s="34"/>
       <c r="CJ81" s="34"/>
@@ -15503,19 +15788,19 @@
       <c r="CP81" s="34"/>
       <c r="CQ81" s="34"/>
       <c r="CY81" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>17800</v>
       </c>
       <c r="CZ81" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19600</v>
       </c>
       <c r="DA81" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B82" s="23" t="s">
         <v>355</v>
       </c>
@@ -15614,9 +15899,16 @@
       <c r="CD82" s="34">
         <v>2700</v>
       </c>
-      <c r="CE82" s="34"/>
-      <c r="CF82" s="34"/>
-      <c r="CG82" s="34"/>
+      <c r="CE82" s="34">
+        <v>2500</v>
+      </c>
+      <c r="CF82" s="34">
+        <v>3300</v>
+      </c>
+      <c r="CG82" s="34">
+        <f>11600-CF82-CE82-CD82</f>
+        <v>3100</v>
+      </c>
       <c r="CH82" s="34"/>
       <c r="CI82" s="34"/>
       <c r="CJ82" s="34"/>
@@ -15628,19 +15920,19 @@
       <c r="CP82" s="34"/>
       <c r="CQ82" s="34"/>
       <c r="CY82" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>12300</v>
       </c>
       <c r="CZ82" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>12800</v>
       </c>
       <c r="DA82" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>12100</v>
       </c>
     </row>
-    <row r="83" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B83" s="23" t="s">
         <v>354</v>
       </c>
@@ -15739,9 +16031,15 @@
       <c r="CD83" s="34">
         <v>13900</v>
       </c>
-      <c r="CE83" s="34"/>
-      <c r="CF83" s="34"/>
-      <c r="CG83" s="34"/>
+      <c r="CE83" s="34">
+        <v>9700</v>
+      </c>
+      <c r="CF83" s="34">
+        <v>9200</v>
+      </c>
+      <c r="CG83" s="34">
+        <v>6500</v>
+      </c>
       <c r="CH83" s="34"/>
       <c r="CI83" s="34"/>
       <c r="CJ83" s="34"/>
@@ -15753,19 +16051,19 @@
       <c r="CP83" s="34"/>
       <c r="CQ83" s="34"/>
       <c r="CY83" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>39200</v>
       </c>
       <c r="CZ83" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>41300</v>
       </c>
       <c r="DA83" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>40600</v>
       </c>
     </row>
-    <row r="84" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B84" s="55" t="s">
         <v>543</v>
       </c>
@@ -15848,9 +16146,16 @@
       <c r="CD84" s="34">
         <v>1100</v>
       </c>
-      <c r="CE84" s="34"/>
-      <c r="CF84" s="34"/>
-      <c r="CG84" s="34"/>
+      <c r="CE84" s="34">
+        <v>1400</v>
+      </c>
+      <c r="CF84" s="34">
+        <v>2300</v>
+      </c>
+      <c r="CG84" s="34">
+        <f>7100-CF84-CE84-CD84</f>
+        <v>2300</v>
+      </c>
       <c r="CH84" s="34"/>
       <c r="CI84" s="34"/>
       <c r="CJ84" s="34"/>
@@ -15865,7 +16170,7 @@
       <c r="CZ84" s="62"/>
       <c r="DA84" s="62"/>
     </row>
-    <row r="85" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B85" s="23" t="s">
         <v>353</v>
       </c>
@@ -15964,11 +16269,23 @@
       <c r="CD85" s="34">
         <v>17600</v>
       </c>
-      <c r="CE85" s="34"/>
-      <c r="CF85" s="34"/>
-      <c r="CG85" s="34"/>
-      <c r="CH85" s="34"/>
-      <c r="CI85" s="34"/>
+      <c r="CE85" s="34">
+        <v>16900</v>
+      </c>
+      <c r="CF85" s="34">
+        <v>15900</v>
+      </c>
+      <c r="CG85" s="34">
+        <v>14300</v>
+      </c>
+      <c r="CH85" s="34">
+        <f t="shared" ref="CH80:CH96" si="40">SUM(BY85:CB85)/$CB$1</f>
+        <v>472.22222222222223</v>
+      </c>
+      <c r="CI85" s="34">
+        <f t="shared" si="30"/>
+        <v>425.65789473684208</v>
+      </c>
       <c r="CJ85" s="34"/>
       <c r="CK85" s="34"/>
       <c r="CL85" s="34"/>
@@ -15978,19 +16295,19 @@
       <c r="CP85" s="34"/>
       <c r="CQ85" s="34"/>
       <c r="CY85" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>60800</v>
       </c>
       <c r="CZ85" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>66600</v>
       </c>
       <c r="DA85" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>66400</v>
       </c>
     </row>
-    <row r="86" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B86" s="23" t="s">
         <v>352</v>
       </c>
@@ -16091,11 +16408,24 @@
       <c r="CD86" s="34">
         <v>31900</v>
       </c>
-      <c r="CE86" s="34"/>
-      <c r="CF86" s="34"/>
-      <c r="CG86" s="34"/>
-      <c r="CH86" s="34"/>
-      <c r="CI86" s="34"/>
+      <c r="CE86" s="34">
+        <v>26900</v>
+      </c>
+      <c r="CF86" s="34">
+        <v>28100</v>
+      </c>
+      <c r="CG86" s="34">
+        <f>111800-CF86-CE86-CD86</f>
+        <v>24900</v>
+      </c>
+      <c r="CH86" s="34">
+        <f t="shared" si="40"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="CI86" s="34">
+        <f t="shared" si="30"/>
+        <v>735.52631578947364</v>
+      </c>
       <c r="CJ86" s="34"/>
       <c r="CK86" s="34"/>
       <c r="CL86" s="34"/>
@@ -16105,19 +16435,19 @@
       <c r="CP86" s="34"/>
       <c r="CQ86" s="34"/>
       <c r="CY86" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>118500</v>
       </c>
       <c r="CZ86" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>118200</v>
       </c>
       <c r="DA86" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>122900</v>
       </c>
     </row>
-    <row r="87" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B87" s="23" t="s">
         <v>351</v>
       </c>
@@ -16218,9 +16548,16 @@
       <c r="CD87" s="34">
         <v>8200</v>
       </c>
-      <c r="CE87" s="34"/>
-      <c r="CF87" s="34"/>
-      <c r="CG87" s="34"/>
+      <c r="CE87" s="34">
+        <v>6800</v>
+      </c>
+      <c r="CF87" s="34">
+        <v>8500</v>
+      </c>
+      <c r="CG87" s="34">
+        <f>30500-CF87-CE87-CD87</f>
+        <v>7000</v>
+      </c>
       <c r="CH87" s="34"/>
       <c r="CI87" s="34"/>
       <c r="CJ87" s="34"/>
@@ -16232,19 +16569,19 @@
       <c r="CP87" s="34"/>
       <c r="CQ87" s="34"/>
       <c r="CY87" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>23200</v>
       </c>
       <c r="CZ87" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>22000</v>
       </c>
       <c r="DA87" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>35600</v>
       </c>
     </row>
-    <row r="88" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B88" s="23" t="s">
         <v>350</v>
       </c>
@@ -16349,19 +16686,19 @@
       <c r="CP88" s="34"/>
       <c r="CQ88" s="34"/>
       <c r="CY88" s="62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1900</v>
       </c>
       <c r="CZ88" s="62">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2600</v>
       </c>
       <c r="DA88" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B89" s="23" t="s">
         <v>349</v>
       </c>
@@ -16462,9 +16799,16 @@
       <c r="CD89" s="34">
         <v>5500</v>
       </c>
-      <c r="CE89" s="34"/>
-      <c r="CF89" s="34"/>
-      <c r="CG89" s="34"/>
+      <c r="CE89" s="34">
+        <v>5800</v>
+      </c>
+      <c r="CF89" s="34">
+        <v>5700</v>
+      </c>
+      <c r="CG89" s="34">
+        <f>19500-CF89-CE89-CD89</f>
+        <v>2500</v>
+      </c>
       <c r="CH89" s="34"/>
       <c r="CI89" s="34"/>
       <c r="CJ89" s="34"/>
@@ -16476,19 +16820,19 @@
       <c r="CP89" s="34"/>
       <c r="CQ89" s="34"/>
       <c r="CY89" s="62">
-        <f t="shared" ref="CY89" si="38">SUM(BR89:BU89)</f>
+        <f t="shared" ref="CY89" si="41">SUM(BR89:BU89)</f>
         <v>13000</v>
       </c>
       <c r="CZ89" s="62">
-        <f t="shared" ref="CZ89" si="39">SUM(BV89:BY89)</f>
+        <f t="shared" ref="CZ89" si="42">SUM(BV89:BY89)</f>
         <v>18100</v>
       </c>
       <c r="DA89" s="62">
-        <f t="shared" ref="DA89" si="40">SUM(BZ89:CC89)</f>
+        <f t="shared" ref="DA89" si="43">SUM(BZ89:CC89)</f>
         <v>20900</v>
       </c>
     </row>
-    <row r="90" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B90" s="55" t="s">
         <v>541</v>
       </c>
@@ -16571,9 +16915,15 @@
       <c r="CD90" s="34">
         <v>900</v>
       </c>
-      <c r="CE90" s="34"/>
-      <c r="CF90" s="34"/>
-      <c r="CG90" s="34"/>
+      <c r="CE90" s="34">
+        <v>1300</v>
+      </c>
+      <c r="CF90" s="34">
+        <v>1700</v>
+      </c>
+      <c r="CG90" s="34">
+        <v>1500</v>
+      </c>
       <c r="CH90" s="34"/>
       <c r="CI90" s="34"/>
       <c r="CJ90" s="34"/>
@@ -16588,7 +16938,7 @@
       <c r="CZ90" s="62"/>
       <c r="DA90" s="62"/>
     </row>
-    <row r="91" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B91" s="23" t="s">
         <v>348</v>
       </c>
@@ -16693,19 +17043,19 @@
       <c r="CP91" s="34"/>
       <c r="CQ91" s="34"/>
       <c r="CY91" s="62">
-        <f t="shared" ref="CY91" si="41">SUM(BR91:BU91)</f>
+        <f t="shared" ref="CY91" si="44">SUM(BR91:BU91)</f>
         <v>20100</v>
       </c>
       <c r="CZ91" s="62">
-        <f t="shared" ref="CZ91" si="42">SUM(BV91:BY91)</f>
+        <f t="shared" ref="CZ91" si="45">SUM(BV91:BY91)</f>
         <v>8400</v>
       </c>
       <c r="DA91" s="62">
-        <f t="shared" ref="DA91" si="43">SUM(BZ91:CC91)</f>
+        <f t="shared" ref="DA91" si="46">SUM(BZ91:CC91)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B92" s="23" t="s">
         <v>347</v>
       </c>
@@ -16806,9 +17156,16 @@
       <c r="CD92" s="34">
         <v>6600</v>
       </c>
-      <c r="CE92" s="34"/>
-      <c r="CF92" s="34"/>
-      <c r="CG92" s="34"/>
+      <c r="CE92" s="34">
+        <v>6800</v>
+      </c>
+      <c r="CF92" s="34">
+        <v>8000</v>
+      </c>
+      <c r="CG92" s="34">
+        <f>27300-CF92-CE92-CD92</f>
+        <v>5900</v>
+      </c>
       <c r="CH92" s="34"/>
       <c r="CI92" s="34"/>
       <c r="CJ92" s="34"/>
@@ -16820,19 +17177,19 @@
       <c r="CP92" s="34"/>
       <c r="CQ92" s="34"/>
       <c r="CY92" s="62">
-        <f t="shared" ref="CY92" si="44">SUM(BR92:BU92)</f>
+        <f t="shared" ref="CY92" si="47">SUM(BR92:BU92)</f>
         <v>26400</v>
       </c>
       <c r="CZ92" s="62">
-        <f t="shared" ref="CZ92" si="45">SUM(BV92:BY92)</f>
+        <f t="shared" ref="CZ92" si="48">SUM(BV92:BY92)</f>
         <v>23700</v>
       </c>
       <c r="DA92" s="62">
-        <f t="shared" ref="DA92" si="46">SUM(BZ92:CC92)</f>
+        <f t="shared" ref="DA92" si="49">SUM(BZ92:CC92)</f>
         <v>29100</v>
       </c>
     </row>
-    <row r="93" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B93" s="23" t="s">
         <v>346</v>
       </c>
@@ -16922,23 +17279,29 @@
         <v>11200</v>
       </c>
       <c r="CA93" s="34">
-        <f t="shared" ref="CA93" si="47">BW93</f>
+        <f t="shared" ref="CA93" si="50">BW93</f>
         <v>10900</v>
       </c>
       <c r="CB93" s="34">
-        <f t="shared" ref="CB93" si="48">BX93</f>
+        <f t="shared" ref="CB93" si="51">BX93</f>
         <v>11600</v>
       </c>
       <c r="CC93" s="34">
-        <f t="shared" ref="CC93" si="49">BY93</f>
+        <f t="shared" ref="CC93" si="52">BY93</f>
         <v>11700</v>
       </c>
       <c r="CD93" s="34">
         <v>10900</v>
       </c>
-      <c r="CE93" s="34"/>
-      <c r="CF93" s="34"/>
-      <c r="CG93" s="34"/>
+      <c r="CE93" s="34">
+        <v>11600</v>
+      </c>
+      <c r="CF93" s="34">
+        <v>10500</v>
+      </c>
+      <c r="CG93" s="34">
+        <v>11500</v>
+      </c>
       <c r="CH93" s="34"/>
       <c r="CI93" s="34"/>
       <c r="CJ93" s="34"/>
@@ -16950,19 +17313,19 @@
       <c r="CP93" s="34"/>
       <c r="CQ93" s="34"/>
       <c r="CY93" s="62">
-        <f t="shared" ref="CY93" si="50">SUM(BR93:BU93)</f>
+        <f t="shared" ref="CY93" si="53">SUM(BR93:BU93)</f>
         <v>40300</v>
       </c>
       <c r="CZ93" s="62">
-        <f t="shared" ref="CZ93" si="51">SUM(BV93:BY93)</f>
+        <f t="shared" ref="CZ93" si="54">SUM(BV93:BY93)</f>
         <v>45500</v>
       </c>
       <c r="DA93" s="62">
-        <f t="shared" ref="DA93" si="52">SUM(BZ93:CC93)</f>
+        <f t="shared" ref="DA93" si="55">SUM(BZ93:CC93)</f>
         <v>45400</v>
       </c>
     </row>
-    <row r="94" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="s">
         <v>345</v>
       </c>
@@ -17063,11 +17426,23 @@
       <c r="CD94" s="34">
         <v>33200</v>
       </c>
-      <c r="CE94" s="34"/>
-      <c r="CF94" s="34"/>
-      <c r="CG94" s="34"/>
-      <c r="CH94" s="34"/>
-      <c r="CI94" s="34"/>
+      <c r="CE94" s="34">
+        <v>31100</v>
+      </c>
+      <c r="CF94" s="34">
+        <v>34700</v>
+      </c>
+      <c r="CG94" s="34">
+        <v>31800</v>
+      </c>
+      <c r="CH94" s="34">
+        <f t="shared" si="40"/>
+        <v>794.44444444444446</v>
+      </c>
+      <c r="CI94" s="34">
+        <f t="shared" si="30"/>
+        <v>860.52631578947364</v>
+      </c>
       <c r="CJ94" s="34"/>
       <c r="CK94" s="34"/>
       <c r="CL94" s="34"/>
@@ -17077,19 +17452,19 @@
       <c r="CP94" s="34"/>
       <c r="CQ94" s="34"/>
       <c r="CY94" s="62">
-        <f t="shared" ref="CY94" si="53">SUM(BR94:BU94)</f>
+        <f t="shared" ref="CY94" si="56">SUM(BR94:BU94)</f>
         <v>102400</v>
       </c>
       <c r="CZ94" s="62">
-        <f t="shared" ref="CZ94" si="54">SUM(BV94:BY94)</f>
+        <f t="shared" ref="CZ94" si="57">SUM(BV94:BY94)</f>
         <v>108700</v>
       </c>
       <c r="DA94" s="62">
-        <f t="shared" ref="DA94" si="55">SUM(BZ94:CC94)</f>
+        <f t="shared" ref="DA94" si="58">SUM(BZ94:CC94)</f>
         <v>118400</v>
       </c>
     </row>
-    <row r="95" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B95" s="23" t="s">
         <v>344</v>
       </c>
@@ -17190,9 +17565,15 @@
       <c r="CD95" s="34">
         <v>36800</v>
       </c>
-      <c r="CE95" s="34"/>
-      <c r="CF95" s="34"/>
-      <c r="CG95" s="34"/>
+      <c r="CE95" s="34">
+        <v>36400</v>
+      </c>
+      <c r="CF95" s="34">
+        <v>40100</v>
+      </c>
+      <c r="CG95" s="34">
+        <v>32900</v>
+      </c>
       <c r="CH95" s="34"/>
       <c r="CI95" s="34"/>
       <c r="CJ95" s="34"/>
@@ -17204,19 +17585,19 @@
       <c r="CP95" s="34"/>
       <c r="CQ95" s="34"/>
       <c r="CY95" s="62">
-        <f t="shared" ref="CY95" si="56">SUM(BR95:BU95)</f>
+        <f t="shared" ref="CY95" si="59">SUM(BR95:BU95)</f>
         <v>75700</v>
       </c>
       <c r="CZ95" s="62">
-        <f t="shared" ref="CZ95" si="57">SUM(BV95:BY95)</f>
+        <f t="shared" ref="CZ95" si="60">SUM(BV95:BY95)</f>
         <v>93100</v>
       </c>
       <c r="DA95" s="62">
-        <f t="shared" ref="DA95" si="58">SUM(BZ95:CC95)</f>
+        <f t="shared" ref="DA95" si="61">SUM(BZ95:CC95)</f>
         <v>119300</v>
       </c>
     </row>
-    <row r="96" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B96" s="23" t="s">
         <v>338</v>
       </c>
@@ -17317,9 +17698,15 @@
       <c r="CD96" s="34">
         <v>234400</v>
       </c>
-      <c r="CE96" s="34"/>
-      <c r="CF96" s="34"/>
-      <c r="CG96" s="34"/>
+      <c r="CE96" s="34">
+        <v>238900</v>
+      </c>
+      <c r="CF96" s="34">
+        <v>225800</v>
+      </c>
+      <c r="CG96" s="34">
+        <v>215100</v>
+      </c>
       <c r="CH96" s="34"/>
       <c r="CI96" s="34"/>
       <c r="CJ96" s="34"/>
@@ -17331,19 +17718,19 @@
       <c r="CP96" s="34"/>
       <c r="CQ96" s="34"/>
       <c r="CY96" s="62">
-        <f t="shared" ref="CY96" si="59">SUM(BR96:BU96)</f>
+        <f t="shared" ref="CY96" si="62">SUM(BR96:BU96)</f>
         <v>521800</v>
       </c>
       <c r="CZ96" s="62">
-        <f t="shared" ref="CZ96" si="60">SUM(BV96:BY96)</f>
+        <f t="shared" ref="CZ96" si="63">SUM(BV96:BY96)</f>
         <v>702800</v>
       </c>
       <c r="DA96" s="62">
-        <f t="shared" ref="DA96" si="61">SUM(BZ96:CC96)</f>
+        <f t="shared" ref="DA96" si="64">SUM(BZ96:CC96)</f>
         <v>800900</v>
       </c>
     </row>
-    <row r="97" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
@@ -17428,7 +17815,7 @@
       <c r="CP97" s="34"/>
       <c r="CQ97" s="34"/>
     </row>
-    <row r="98" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B98" s="23" t="s">
         <v>210</v>
       </c>
@@ -17536,7 +17923,7 @@
         <v>335678</v>
       </c>
     </row>
-    <row r="99" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>69</v>
       </c>
@@ -17633,7 +18020,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="100" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>63</v>
       </c>
@@ -17722,7 +18109,7 @@
       <c r="CP100" s="34"/>
       <c r="CQ100" s="34"/>
     </row>
-    <row r="101" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>71</v>
       </c>
@@ -17809,7 +18196,7 @@
       <c r="CP101" s="34"/>
       <c r="CQ101" s="34"/>
     </row>
-    <row r="102" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:105" x14ac:dyDescent="0.25">
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
@@ -17861,7 +18248,7 @@
       <c r="AM102" s="34"/>
       <c r="AN102" s="34"/>
     </row>
-    <row r="103" spans="2:105" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:105" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>56</v>
       </c>
@@ -17998,60 +18385,69 @@
       <c r="BP103" s="32"/>
       <c r="BQ103" s="32"/>
       <c r="BR103" s="32">
-        <f>SUM(BR4:BR96)</f>
+        <f t="shared" ref="BR103:CG103" si="65">SUM(BR4:BR96)</f>
         <v>745200</v>
       </c>
       <c r="BS103" s="32">
-        <f>SUM(BS4:BS96)</f>
+        <f t="shared" si="65"/>
         <v>759600</v>
       </c>
       <c r="BT103" s="32">
-        <f>SUM(BT4:BT96)</f>
+        <f t="shared" si="65"/>
         <v>814600</v>
       </c>
       <c r="BU103" s="32">
-        <f>SUM(BU4:BU96)</f>
+        <f t="shared" si="65"/>
         <v>760900</v>
       </c>
       <c r="BV103" s="32">
-        <f>SUM(BV4:BV96)</f>
+        <f t="shared" si="65"/>
         <v>889000</v>
       </c>
       <c r="BW103" s="32">
-        <f>SUM(BW4:BW96)</f>
+        <f t="shared" si="65"/>
         <v>924200</v>
       </c>
       <c r="BX103" s="32">
-        <f>SUM(BX4:BX96)</f>
+        <f t="shared" si="65"/>
         <v>1014900</v>
       </c>
       <c r="BY103" s="32">
-        <f>SUM(BY4:BY96)</f>
+        <f t="shared" si="65"/>
         <v>863700</v>
       </c>
       <c r="BZ103" s="32">
-        <f>SUM(BZ4:BZ96)</f>
+        <f t="shared" si="65"/>
         <v>1058600</v>
       </c>
       <c r="CA103" s="32">
-        <f>SUM(CA4:CA96)</f>
+        <f t="shared" si="65"/>
         <v>1038600</v>
       </c>
       <c r="CB103" s="32">
-        <f>SUM(CB4:CB96)</f>
+        <f t="shared" si="65"/>
         <v>1112200</v>
       </c>
       <c r="CC103" s="32">
-        <f>SUM(CC4:CC96)</f>
+        <f t="shared" si="65"/>
         <v>1030400</v>
       </c>
       <c r="CD103" s="32">
-        <f>SUM(CD4:CD96)</f>
+        <f t="shared" si="65"/>
         <v>1208000</v>
       </c>
-      <c r="CE103" s="32"/>
-      <c r="CF103" s="32"/>
-      <c r="CG103" s="32"/>
+      <c r="CE103" s="32">
+        <f t="shared" si="65"/>
+        <v>1094200</v>
+      </c>
+      <c r="CF103" s="32">
+        <f t="shared" si="65"/>
+        <v>1059100</v>
+      </c>
+      <c r="CG103" s="32">
+        <f t="shared" si="65"/>
+        <v>964100</v>
+      </c>
       <c r="CH103" s="32"/>
       <c r="CI103" s="32"/>
       <c r="CJ103" s="32"/>
@@ -18092,7 +18488,7 @@
         <v>4291478</v>
       </c>
     </row>
-    <row r="104" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>57</v>
       </c>
@@ -18280,89 +18676,89 @@
         <v>1244072</v>
       </c>
     </row>
-    <row r="105" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C105" s="34"/>
       <c r="F105" s="34">
-        <f t="shared" ref="F105:P105" si="62">F103-F104</f>
+        <f t="shared" ref="F105:P105" si="66">F103-F104</f>
         <v>294641</v>
       </c>
       <c r="G105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>273736</v>
       </c>
       <c r="H105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>293576</v>
       </c>
       <c r="I105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>234218</v>
       </c>
       <c r="J105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>318253</v>
       </c>
       <c r="K105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>338178</v>
       </c>
       <c r="L105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>325059</v>
       </c>
       <c r="M105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>267303</v>
       </c>
       <c r="N105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>307641</v>
       </c>
       <c r="O105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>307430</v>
       </c>
       <c r="P105" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>298246</v>
       </c>
       <c r="Q105" s="34">
-        <f t="shared" ref="Q105:Y105" si="63">Q103-Q104</f>
+        <f t="shared" ref="Q105:Y105" si="67">Q103-Q104</f>
         <v>267584</v>
       </c>
       <c r="R105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>286396</v>
       </c>
       <c r="S105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>277046</v>
       </c>
       <c r="T105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>282993</v>
       </c>
       <c r="U105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>259764.89</v>
       </c>
       <c r="V105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>236210.32820000005</v>
       </c>
       <c r="W105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>231802.27978600003</v>
       </c>
       <c r="X105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>231330.65541278003</v>
       </c>
       <c r="Y105" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>235919.77362739941</v>
       </c>
       <c r="Z105" s="34"/>
@@ -18479,7 +18875,7 @@
         <v>2783406</v>
       </c>
     </row>
-    <row r="106" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>59</v>
       </c>
@@ -18659,7 +19055,7 @@
         <v>997309</v>
       </c>
     </row>
-    <row r="107" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>89</v>
       </c>
@@ -18819,7 +19215,7 @@
         <v>633325</v>
       </c>
     </row>
-    <row r="108" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B108" s="23" t="s">
         <v>185</v>
       </c>
@@ -18950,19 +19346,19 @@
       <c r="BX108" s="34"/>
       <c r="BY108" s="34"/>
       <c r="BZ108" s="34">
-        <f t="shared" ref="BZ108:CC108" si="64">+BZ106+BZ107</f>
+        <f t="shared" ref="BZ108:CC108" si="68">+BZ106+BZ107</f>
         <v>410800</v>
       </c>
       <c r="CA108" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="CB108" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="CC108" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="CD108" s="34">
@@ -18994,7 +19390,7 @@
         <v>1630634</v>
       </c>
     </row>
-    <row r="109" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>81</v>
       </c>
@@ -19013,67 +19409,67 @@
       </c>
       <c r="I109" s="34"/>
       <c r="J109" s="34">
-        <f t="shared" ref="J109:O109" si="65">J105-J108</f>
+        <f t="shared" ref="J109:O109" si="69">J105-J108</f>
         <v>-27236</v>
       </c>
       <c r="K109" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>112266</v>
       </c>
       <c r="L109" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>154854</v>
       </c>
       <c r="M109" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>66584</v>
       </c>
       <c r="N109" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>125630</v>
       </c>
       <c r="O109" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>116897</v>
       </c>
       <c r="P109" s="34">
-        <f t="shared" ref="P109:Y109" si="66">P105-P108</f>
+        <f t="shared" ref="P109:Y109" si="70">P105-P108</f>
         <v>113694</v>
       </c>
       <c r="Q109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>63990</v>
       </c>
       <c r="R109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>112060</v>
       </c>
       <c r="S109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>109558</v>
       </c>
       <c r="T109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>110894</v>
       </c>
       <c r="U109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>96125.360000000015</v>
       </c>
       <c r="V109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>81112.966800000053</v>
       </c>
       <c r="W109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>78365.092464000045</v>
       </c>
       <c r="X109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>77740.417704720021</v>
       </c>
       <c r="Y109" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>80268.838195875636</v>
       </c>
       <c r="Z109" s="34"/>
@@ -19140,19 +19536,19 @@
       <c r="BX109" s="34"/>
       <c r="BY109" s="34"/>
       <c r="BZ109" s="34">
-        <f t="shared" ref="BZ109:CC109" si="67">+BZ105-BZ108</f>
+        <f t="shared" ref="BZ109:CC109" si="71">+BZ105-BZ108</f>
         <v>326700</v>
       </c>
       <c r="CA109" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="CB109" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="CC109" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="CD109" s="34">
@@ -19199,7 +19595,7 @@
         <v>1152772</v>
       </c>
     </row>
-    <row r="110" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>80</v>
       </c>
@@ -19356,7 +19752,7 @@
         <v>-226608</v>
       </c>
     </row>
-    <row r="111" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>82</v>
       </c>
@@ -19369,67 +19765,67 @@
       </c>
       <c r="I111" s="34"/>
       <c r="J111" s="34">
-        <f t="shared" ref="J111:O111" si="68">+J109+J110</f>
+        <f t="shared" ref="J111:O111" si="72">+J109+J110</f>
         <v>-10595</v>
       </c>
       <c r="K111" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>108025</v>
       </c>
       <c r="L111" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>154728</v>
       </c>
       <c r="M111" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>75271</v>
       </c>
       <c r="N111" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>134667</v>
       </c>
       <c r="O111" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>116279</v>
       </c>
       <c r="P111" s="34">
-        <f t="shared" ref="P111:Y111" si="69">+P109+P110</f>
+        <f t="shared" ref="P111:Y111" si="73">+P109+P110</f>
         <v>118314</v>
       </c>
       <c r="Q111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>46568</v>
       </c>
       <c r="R111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>108634</v>
       </c>
       <c r="S111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>116839</v>
       </c>
       <c r="T111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>118327</v>
       </c>
       <c r="U111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>96125.360000000015</v>
       </c>
       <c r="V111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>81112.966800000053</v>
       </c>
       <c r="W111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>78365.092464000045</v>
       </c>
       <c r="X111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>77740.417704720021</v>
       </c>
       <c r="Y111" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>80268.838195875636</v>
       </c>
       <c r="Z111" s="34"/>
@@ -19502,27 +19898,27 @@
       <c r="CJ111" s="34"/>
       <c r="CK111" s="34"/>
       <c r="CL111" s="34">
-        <f t="shared" ref="CL111:CQ111" si="70">CL109+CL110</f>
+        <f t="shared" ref="CL111:CQ111" si="74">CL109+CL110</f>
         <v>306468</v>
       </c>
       <c r="CM111" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>420211</v>
       </c>
       <c r="CN111" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>398853.78000000014</v>
       </c>
       <c r="CO111" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1221765.6685174166</v>
       </c>
       <c r="CP111" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>761009.74741921551</v>
       </c>
       <c r="CQ111" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>664638.26037839882</v>
       </c>
       <c r="CY111" s="14">
@@ -19534,7 +19930,7 @@
         <v>926164</v>
       </c>
     </row>
-    <row r="112" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>60</v>
       </c>
@@ -19687,27 +20083,27 @@
       <c r="CJ112" s="34"/>
       <c r="CK112" s="34"/>
       <c r="CL112" s="34">
-        <f t="shared" ref="CL112:CQ112" si="71">CL111*0.3</f>
+        <f t="shared" ref="CL112:CQ112" si="75">CL111*0.3</f>
         <v>91940.4</v>
       </c>
       <c r="CM112" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>126063.29999999999</v>
       </c>
       <c r="CN112" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>119656.13400000003</v>
       </c>
       <c r="CO112" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>366529.70055522496</v>
       </c>
       <c r="CP112" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>228302.92422576464</v>
       </c>
       <c r="CQ112" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>199391.47811351964</v>
       </c>
       <c r="CY112" s="14">
@@ -19717,7 +20113,7 @@
         <v>58052</v>
       </c>
     </row>
-    <row r="113" spans="2:128" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:128" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="23" t="s">
         <v>100</v>
       </c>
@@ -19735,67 +20131,67 @@
       </c>
       <c r="I113" s="39"/>
       <c r="J113" s="39">
-        <f t="shared" ref="J113:O113" si="72">+J111-J112</f>
+        <f t="shared" ref="J113:O113" si="76">+J111-J112</f>
         <v>-75897</v>
       </c>
       <c r="K113" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>68848</v>
       </c>
       <c r="L113" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>100217</v>
       </c>
       <c r="M113" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>70100</v>
       </c>
       <c r="N113" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>109667</v>
       </c>
       <c r="O113" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>76008</v>
       </c>
       <c r="P113" s="39">
-        <f t="shared" ref="P113:Y113" si="73">+P111-P112</f>
+        <f t="shared" ref="P113:Y113" si="77">+P111-P112</f>
         <v>73474</v>
       </c>
       <c r="Q113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>38594</v>
       </c>
       <c r="R113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>68911</v>
       </c>
       <c r="S113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>76748</v>
       </c>
       <c r="T113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>79430</v>
       </c>
       <c r="U113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>64526.586026857782</v>
       </c>
       <c r="V113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>54449.136316512748</v>
       </c>
       <c r="W113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>52604.555971295849</v>
       </c>
       <c r="X113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>52185.227194857565</v>
       </c>
       <c r="Y113" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>53882.493580487979</v>
       </c>
       <c r="Z113" s="39"/>
@@ -19874,27 +20270,27 @@
       <c r="CJ113" s="39"/>
       <c r="CK113" s="39"/>
       <c r="CL113" s="39">
-        <f t="shared" ref="CL113:CQ113" si="74">CL111-CL112</f>
+        <f t="shared" ref="CL113:CQ113" si="78">CL111-CL112</f>
         <v>214527.6</v>
       </c>
       <c r="CM113" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>294147.7</v>
       </c>
       <c r="CN113" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>279197.64600000012</v>
       </c>
       <c r="CO113" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>855235.96796219167</v>
       </c>
       <c r="CP113" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>532706.82319345092</v>
       </c>
       <c r="CQ113" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>465246.78226487921</v>
       </c>
       <c r="CR113" s="39"/>
@@ -19937,48 +20333,48 @@
       <c r="DW113" s="39"/>
       <c r="DX113" s="39"/>
     </row>
-    <row r="114" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:128" ht="13" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
         <v>191</v>
       </c>
       <c r="P114" s="43">
-        <f t="shared" ref="P114:Y114" si="75">P113/P115</f>
+        <f t="shared" ref="P114:Y114" si="79">P113/P115</f>
         <v>93.044389856955931</v>
       </c>
       <c r="Q114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>48.891542189611854</v>
       </c>
       <c r="R114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>87.297638592225283</v>
       </c>
       <c r="S114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>97.225684820654266</v>
       </c>
       <c r="T114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>100.62328849357075</v>
       </c>
       <c r="U114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>81.743387653099859</v>
       </c>
       <c r="V114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>68.977101243890502</v>
       </c>
       <c r="W114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>66.640355175322824</v>
       </c>
       <c r="X114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>66.109142277863356</v>
       </c>
       <c r="Y114" s="43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>68.259268491784169</v>
       </c>
       <c r="Z114" s="43"/>
@@ -20005,27 +20401,27 @@
         <v>-393.15270618556701</v>
       </c>
       <c r="CL114" s="43">
-        <f t="shared" ref="CL114:CQ114" si="76">CL113/CL115</f>
+        <f t="shared" ref="CL114:CQ114" si="80">CL113/CL115</f>
         <v>271.77295998375644</v>
       </c>
       <c r="CM114" s="43">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>372.63135939594991</v>
       </c>
       <c r="CN114" s="46">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>353.69237416824694</v>
       </c>
       <c r="CO114" s="46">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>1083.4276159428157</v>
       </c>
       <c r="CP114" s="46">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>674.84215476127656</v>
       </c>
       <c r="CQ114" s="46">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>589.38261604613422</v>
       </c>
       <c r="CZ114" s="47">
@@ -20033,7 +20429,7 @@
         <v>559.35051546391753</v>
       </c>
     </row>
-    <row r="115" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
         <v>48</v>
       </c>
@@ -20054,39 +20450,39 @@
         <v>789.66609500000004</v>
       </c>
       <c r="Q115" s="34">
-        <f t="shared" ref="Q115:Y115" si="77">789.666095-0.286209</f>
+        <f t="shared" ref="Q115:Y115" si="81">789.666095-0.286209</f>
         <v>789.37988600000006</v>
       </c>
       <c r="R115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="S115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="T115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="U115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="V115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="W115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="X115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="Y115" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>789.37988600000006</v>
       </c>
       <c r="Z115" s="34"/>
@@ -20188,12 +20584,12 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="116" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:128" x14ac:dyDescent="0.25">
       <c r="P116" s="39"/>
       <c r="CS116" s="45"/>
       <c r="CT116" s="48"/>
     </row>
-    <row r="117" spans="2:128" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:128" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B117" s="16" t="s">
         <v>61</v>
       </c>
@@ -20210,59 +20606,59 @@
       <c r="J117" s="40"/>
       <c r="K117" s="40"/>
       <c r="L117" s="40">
-        <f t="shared" ref="L117:R117" si="78">+L103/H103-1</f>
+        <f t="shared" ref="L117:R117" si="82">+L103/H103-1</f>
         <v>7.6423277428904202E-2</v>
       </c>
       <c r="M117" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0.12307146538510461</v>
       </c>
       <c r="N117" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-4.5111758940337254E-2</v>
       </c>
       <c r="O117" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-8.2345542693761709E-2</v>
       </c>
       <c r="P117" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-5.8457610838683616E-2</v>
       </c>
       <c r="Q117" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7.280020025270062E-3</v>
       </c>
       <c r="R117" s="40">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-5.1398897558427081E-2</v>
       </c>
       <c r="S117" s="40">
-        <f t="shared" ref="S117:Y117" si="79">+S103/O103-1</f>
+        <f t="shared" ref="S117:Y117" si="83">+S103/O103-1</f>
         <v>-5.8301193170348209E-2</v>
       </c>
       <c r="T117" s="40">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>-1.4464701350092479E-2</v>
       </c>
       <c r="U117" s="40">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>-1.9584697901596781E-3</v>
       </c>
       <c r="V117" s="40">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>-0.14668048222799557</v>
       </c>
       <c r="W117" s="40">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>-0.1508632013922776</v>
       </c>
       <c r="X117" s="40">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>-0.18162535891911025</v>
       </c>
       <c r="Y117" s="40">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>-9.1794993436567163E-2</v>
       </c>
       <c r="Z117" s="40"/>
@@ -20320,35 +20716,35 @@
       <c r="BT117" s="40"/>
       <c r="BU117" s="40"/>
       <c r="BV117" s="40">
-        <f t="shared" ref="BV117:CC117" si="80">BV103/BR103-1</f>
+        <f t="shared" ref="BV117:CC117" si="84">BV103/BR103-1</f>
         <v>0.19296833064949004</v>
       </c>
       <c r="BW117" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.21669299631384931</v>
       </c>
       <c r="BX117" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.24588755217284564</v>
       </c>
       <c r="BY117" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.13510316730187943</v>
       </c>
       <c r="BZ117" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.19077615298087736</v>
       </c>
       <c r="CA117" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.12378273101060366</v>
       </c>
       <c r="CB117" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>9.5871514434919591E-2</v>
       </c>
       <c r="CC117" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.19300683107560501</v>
       </c>
       <c r="CD117" s="40"/>
@@ -20395,7 +20791,7 @@
         <v>6.5549706292622911E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:128" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>111</v>
       </c>
@@ -20506,7 +20902,7 @@
       <c r="CS118" s="45"/>
       <c r="CT118" s="34"/>
     </row>
-    <row r="119" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:128" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>77</v>
       </c>
@@ -20523,51 +20919,51 @@
         <v>0.79877670515764609</v>
       </c>
       <c r="I119" s="38">
-        <f t="shared" ref="I119:T119" si="81">I105/I103</f>
+        <f t="shared" ref="I119:T119" si="85">I105/I103</f>
         <v>0.78385686842792213</v>
       </c>
       <c r="J119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.80188519984579765</v>
       </c>
       <c r="K119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.82430367158307316</v>
       </c>
       <c r="L119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.82164450735554317</v>
       </c>
       <c r="M119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.79654981285908411</v>
       </c>
       <c r="N119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.81176694100169666</v>
       </c>
       <c r="O119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.816599198886516</v>
       </c>
       <c r="P119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.80067544893461084</v>
       </c>
       <c r="Q119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.79162413947144983</v>
       </c>
       <c r="R119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.79665533605193906</v>
       </c>
       <c r="S119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.7814524704747452</v>
       </c>
       <c r="T119" s="38">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.7708775418477003</v>
       </c>
       <c r="U119" s="38">
@@ -20668,7 +21064,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="120" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:128" x14ac:dyDescent="0.25">
       <c r="B120" s="23" t="s">
         <v>243</v>
       </c>
@@ -20681,24 +21077,24 @@
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
       <c r="N120" s="38">
-        <f t="shared" ref="N120:S120" si="82">N106/N103</f>
+        <f t="shared" ref="N120:S120" si="86">N106/N103</f>
         <v>0.30910582964137667</v>
       </c>
       <c r="O120" s="38">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.31826464369574686</v>
       </c>
       <c r="P120" s="38">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.29760022335990205</v>
       </c>
       <c r="Q120" s="38"/>
       <c r="R120" s="38">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.31216585349570791</v>
       </c>
       <c r="S120" s="38">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.29731444995726702</v>
       </c>
       <c r="T120" s="38">
@@ -20784,68 +21180,68 @@
       <c r="CJ120" s="38"/>
       <c r="CK120" s="38"/>
       <c r="CL120" s="38">
-        <f t="shared" ref="CL120:CQ120" si="83">CL106/CL103</f>
+        <f t="shared" ref="CL120:CQ120" si="87">CL106/CL103</f>
         <v>0.61256123499677573</v>
       </c>
       <c r="CM120" s="38">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.3167128819583005</v>
       </c>
       <c r="CN120" s="38">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.32137580335718002</v>
       </c>
       <c r="CO120" s="38">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.18738876445470129</v>
       </c>
       <c r="CP120" s="38">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.22860735464370757</v>
       </c>
       <c r="CQ120" s="38">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>0.21442560759358531</v>
       </c>
     </row>
-    <row r="121" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:128" x14ac:dyDescent="0.25">
       <c r="B121" s="55" t="s">
         <v>536</v>
       </c>
       <c r="K121" s="52">
-        <f t="shared" ref="K121:S121" si="84">K112/K111</f>
+        <f t="shared" ref="K121:S121" si="88">K112/K111</f>
         <v>0.3626660495255728</v>
       </c>
       <c r="L121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.35230210433793496</v>
       </c>
       <c r="M121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>6.8698436316775385E-2</v>
       </c>
       <c r="N121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.18564310484379989</v>
       </c>
       <c r="O121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.34633080779848469</v>
       </c>
       <c r="P121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.37899149720235981</v>
       </c>
       <c r="Q121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.17123346504037107</v>
       </c>
       <c r="R121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.3656590017858129</v>
       </c>
       <c r="S121" s="52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>0.34313029039960974</v>
       </c>
       <c r="T121" s="52">
@@ -20888,7 +21284,7 @@
       <c r="AM121" s="38"/>
       <c r="AN121" s="38"/>
     </row>
-    <row r="122" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:128" x14ac:dyDescent="0.25">
       <c r="B122" s="23" t="s">
         <v>53</v>
       </c>
@@ -20956,13 +21352,13 @@
         <v>3108387.2194205225</v>
       </c>
     </row>
-    <row r="123" spans="2:128" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:128" x14ac:dyDescent="0.25">
       <c r="CN123" s="34"/>
       <c r="CO123" s="34"/>
       <c r="CP123" s="34"/>
       <c r="CQ123" s="34"/>
     </row>
-    <row r="124" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="14" t="s">
         <v>219</v>
       </c>
@@ -21067,7 +21463,7 @@
       <c r="CS124" s="34"/>
       <c r="CT124" s="34"/>
     </row>
-    <row r="125" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="14" t="s">
         <v>220</v>
       </c>
@@ -21172,7 +21568,7 @@
       <c r="CS125" s="34"/>
       <c r="CT125" s="34"/>
     </row>
-    <row r="126" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="14" t="s">
         <v>221</v>
       </c>
@@ -21279,7 +21675,7 @@
       <c r="CS126" s="34"/>
       <c r="CT126" s="34"/>
     </row>
-    <row r="130" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B130" s="23" t="s">
         <v>238</v>
       </c>
@@ -21295,7 +21691,7 @@
         <v>162300</v>
       </c>
     </row>
-    <row r="131" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B131" s="23" t="s">
         <v>240</v>
       </c>
@@ -21311,7 +21707,7 @@
         <v>112800</v>
       </c>
     </row>
-    <row r="132" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B132" s="23" t="s">
         <v>239</v>
       </c>
@@ -21327,7 +21723,7 @@
         <v>36700</v>
       </c>
     </row>
-    <row r="133" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:104" x14ac:dyDescent="0.25">
       <c r="R133" s="34">
         <f>+R44+R8+R14+R22</f>
         <v>5200</v>
@@ -21340,7 +21736,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="135" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B135" s="55" t="s">
         <v>50</v>
       </c>
@@ -21349,7 +21745,7 @@
         <v>932561</v>
       </c>
     </row>
-    <row r="136" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B136" s="55" t="s">
         <v>426</v>
       </c>
@@ -21357,7 +21753,7 @@
         <v>649429</v>
       </c>
     </row>
-    <row r="137" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B137" s="55" t="s">
         <v>427</v>
       </c>
@@ -21365,7 +21761,7 @@
         <v>986457</v>
       </c>
     </row>
-    <row r="138" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B138" s="55" t="s">
         <v>428</v>
       </c>
@@ -21374,7 +21770,7 @@
         <v>176103</v>
       </c>
     </row>
-    <row r="139" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B139" s="55" t="s">
         <v>60</v>
       </c>
@@ -21383,7 +21779,7 @@
         <v>398267</v>
       </c>
     </row>
-    <row r="140" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B140" s="55" t="s">
         <v>432</v>
       </c>
@@ -21391,7 +21787,7 @@
         <v>63325</v>
       </c>
     </row>
-    <row r="141" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B141" s="55" t="s">
         <v>431</v>
       </c>
@@ -21399,7 +21795,7 @@
         <v>1691229</v>
       </c>
     </row>
-    <row r="142" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B142" s="55" t="s">
         <v>430</v>
       </c>
@@ -21408,7 +21804,7 @@
         <v>9060380</v>
       </c>
     </row>
-    <row r="143" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B143" s="55" t="s">
         <v>429</v>
       </c>
@@ -21417,7 +21813,7 @@
         <v>13957751</v>
       </c>
     </row>
-    <row r="145" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B145" s="55" t="s">
         <v>51</v>
       </c>
@@ -21426,7 +21822,7 @@
         <v>5102147</v>
       </c>
     </row>
-    <row r="146" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B146" s="55" t="s">
         <v>433</v>
       </c>
@@ -21435,7 +21831,7 @@
         <v>566833</v>
       </c>
     </row>
-    <row r="147" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B147" s="55" t="s">
         <v>434</v>
       </c>
@@ -21444,7 +21840,7 @@
         <v>564329</v>
       </c>
     </row>
-    <row r="148" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B148" s="55" t="s">
         <v>60</v>
       </c>
@@ -21453,7 +21849,7 @@
         <v>527555</v>
       </c>
     </row>
-    <row r="149" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B149" s="55" t="s">
         <v>435</v>
       </c>
@@ -21461,7 +21857,7 @@
         <v>649233</v>
       </c>
     </row>
-    <row r="150" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B150" s="55" t="s">
         <v>436</v>
       </c>
@@ -21469,7 +21865,7 @@
         <v>65389</v>
       </c>
     </row>
-    <row r="151" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B151" s="55" t="s">
         <v>437</v>
       </c>
@@ -21477,7 +21873,7 @@
         <v>127594</v>
       </c>
     </row>
-    <row r="152" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B152" s="55" t="s">
         <v>438</v>
       </c>
@@ -21485,7 +21881,7 @@
         <v>6354672</v>
       </c>
     </row>
-    <row r="153" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B153" s="55" t="s">
         <v>439</v>
       </c>
@@ -21513,17 +21909,17 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>388</v>
       </c>
@@ -21531,7 +21927,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
         <v>389</v>
       </c>
@@ -21539,7 +21935,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
@@ -21561,19 +21957,19 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -21581,7 +21977,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -21589,7 +21985,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -21597,7 +21993,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -21621,18 +22017,18 @@
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -21656,19 +22052,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -21676,7 +22072,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -21684,7 +22080,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -21708,19 +22104,19 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -21728,7 +22124,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -21736,7 +22132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -21744,7 +22140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -21752,7 +22148,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
@@ -21760,7 +22156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
@@ -21768,7 +22164,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -21776,22 +22172,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>126</v>
       </c>
@@ -21813,19 +22209,19 @@
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -21833,7 +22229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -21841,7 +22237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
@@ -21849,7 +22245,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -21857,7 +22253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -21865,7 +22261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -21873,12 +22269,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -21904,6 +22300,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -22017,12 +22419,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F1151A-1AB6-4EC7-9FA4-3C32E8ADF199}">
   <ds:schemaRefs>
@@ -22032,6 +22428,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FDDB01B-6A67-42CA-B809-AEC97CEC78B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C6D05E-B893-4633-AB73-49C81EE81FC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22045,13 +22450,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FDDB01B-6A67-42CA-B809-AEC97CEC78B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/4502 Takeda.xlsx
+++ b/4502 Takeda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47EEA6-C08B-4E86-9414-CB154E40AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D80D7C-C7C8-4C35-BAFD-681F053F3EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38530" yWindow="1360" windowWidth="17220" windowHeight="14080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35640" yWindow="3080" windowWidth="24000" windowHeight="15320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="11" r:id="rId1"/>
@@ -2902,22 +2902,22 @@
       <selection activeCell="B41" sqref="B41:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>91</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
         <v>150</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>153</v>
       </c>
@@ -2963,12 +2963,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="s">
         <v>30</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="55" t="s">
         <v>400</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
         <v>465</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
         <v>146</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
         <v>223</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="56" t="s">
         <v>480</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>291</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="56" t="s">
         <v>477</v>
       </c>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
         <v>194</v>
       </c>
@@ -3104,14 +3104,14 @@
       <c r="E15" s="41"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="56"/>
       <c r="C16" s="26"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
         <v>156</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
         <v>471</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
         <v>472</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="56" t="s">
         <v>108</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="56" t="s">
         <v>475</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="56" t="s">
         <v>476</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="56" t="s">
         <v>478</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="56" t="s">
         <v>479</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="56" t="s">
         <v>481</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="56" t="s">
         <v>483</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>170</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="25" t="s">
         <v>175</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="56" t="s">
         <v>485</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="56" t="s">
         <v>486</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="25" t="s">
         <v>179</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="25" t="s">
         <v>182</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="25" t="s">
         <v>180</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="25" t="s">
         <v>174</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="56" t="s">
         <v>489</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="56" t="s">
         <v>491</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>183</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
@@ -3520,18 +3520,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
         <v>134</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>132</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>54</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>140</v>
       </c>
@@ -3587,18 +3587,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
         <v>138</v>
       </c>
@@ -3617,18 +3617,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -3636,12 +3636,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>230</v>
       </c>
@@ -3670,139 +3670,139 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="27" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="27" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="27" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="27" t="s">
         <v>279</v>
       </c>
@@ -3821,23 +3821,23 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>129</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>6798477</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>143</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>189</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>10773977</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
         <v>344</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="56" t="s">
         <v>535</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="56" t="s">
         <v>488</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
         <v>392</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
         <v>289</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>236</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
         <v>149</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="H16" s="8"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
         <v>396</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="H17" s="8"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
         <v>456</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
         <v>459</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
         <v>457</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="56" t="s">
         <v>461</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="56" t="s">
         <v>454</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="56" t="s">
         <v>463</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="56" t="s">
         <v>482</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="56" t="s">
         <v>401</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>395</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4313,7 +4313,7 @@
       <c r="H27" s="4"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="56" t="s">
         <v>462</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="56" t="s">
         <v>444</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="56" t="s">
         <v>448</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="56" t="s">
         <v>517</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="56" t="s">
         <v>498</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>515</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="56" t="s">
         <v>520</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="56" t="s">
         <v>504</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="56" t="s">
         <v>501</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="56" t="s">
         <v>450</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="56" t="s">
         <v>506</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="56" t="s">
         <v>510</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="56" t="s">
         <v>521</v>
       </c>
@@ -4544,7 +4544,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="56" t="s">
         <v>524</v>
       </c>
@@ -4559,7 +4559,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="56" t="s">
         <v>526</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="56" t="s">
         <v>531</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="56" t="s">
         <v>529</v>
       </c>
@@ -4604,7 +4604,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="56" t="s">
         <v>533</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="56" t="s">
         <v>440</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="63" t="s">
         <v>494</v>
       </c>
@@ -4655,22 +4655,22 @@
       <c r="G47" s="9"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="49" spans="6:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="6:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="6:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="6:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="19" t="s">
         <v>290</v>
       </c>
@@ -4696,31 +4696,31 @@
   <dimension ref="A1:DX153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CB87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="CR94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CH94" sqref="CH94"/>
+      <selection pane="bottomRight" activeCell="DB96" sqref="DB96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="1" customWidth="1"/>
-    <col min="3" max="41" width="9.1796875" style="30"/>
-    <col min="42" max="49" width="8.81640625" style="30" hidden="1" customWidth="1"/>
-    <col min="50" max="68" width="8.81640625" style="30" customWidth="1"/>
-    <col min="69" max="76" width="9.54296875" style="30" customWidth="1"/>
-    <col min="77" max="85" width="9.453125" style="30" customWidth="1"/>
-    <col min="86" max="89" width="8.81640625" style="30" customWidth="1"/>
-    <col min="90" max="95" width="9.7265625" style="30" customWidth="1"/>
-    <col min="96" max="96" width="8.81640625" style="30" customWidth="1"/>
-    <col min="97" max="98" width="9.7265625" style="30" customWidth="1"/>
-    <col min="99" max="101" width="9.7265625" style="1" customWidth="1"/>
-    <col min="102" max="106" width="10.54296875" style="1" customWidth="1"/>
-    <col min="107" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="41" width="9.140625" style="30"/>
+    <col min="42" max="49" width="8.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="50" max="68" width="8.85546875" style="30" customWidth="1"/>
+    <col min="69" max="76" width="9.5703125" style="30" customWidth="1"/>
+    <col min="77" max="85" width="9.42578125" style="30" customWidth="1"/>
+    <col min="86" max="89" width="8.85546875" style="30" customWidth="1"/>
+    <col min="90" max="95" width="9.7109375" style="30" customWidth="1"/>
+    <col min="96" max="96" width="8.85546875" style="30" customWidth="1"/>
+    <col min="97" max="98" width="9.7109375" style="30" customWidth="1"/>
+    <col min="99" max="101" width="9.7109375" style="1" customWidth="1"/>
+    <col min="102" max="106" width="10.5703125" style="1" customWidth="1"/>
+    <col min="107" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
       <c r="F2" s="30" t="s">
         <v>235</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
       <c r="C3" s="31">
         <v>38961</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>50130</v>
       </c>
     </row>
-    <row r="4" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
         <v>88</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>107400</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="CP5" s="34"/>
       <c r="CQ5" s="34"/>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="CP6" s="34"/>
       <c r="CQ6" s="34"/>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>113</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="CP7" s="34"/>
       <c r="CQ7" s="34"/>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>114</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="CP8" s="34"/>
       <c r="CQ8" s="34"/>
     </row>
-    <row r="9" spans="1:118" s="19" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
         <v>236</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="10" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="55" t="s">
         <v>87</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="CZ10" s="62"/>
       <c r="DA10" s="62"/>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="CZ11" s="62"/>
       <c r="DA11" s="62"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>112</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="CZ12" s="62"/>
       <c r="DA12" s="62"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>113</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="CZ13" s="62"/>
       <c r="DA13" s="62"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="CZ14" s="62"/>
       <c r="DA14" s="62"/>
     </row>
-    <row r="15" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="55" t="s">
         <v>17</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="CZ15" s="62"/>
       <c r="DA15" s="62"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
@@ -7599,7 +7599,7 @@
       <c r="CZ16" s="62"/>
       <c r="DA16" s="62"/>
     </row>
-    <row r="17" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>112</v>
       </c>
@@ -7753,7 +7753,7 @@
       <c r="CZ17" s="62"/>
       <c r="DA17" s="62"/>
     </row>
-    <row r="18" spans="2:105" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:105" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="55" t="s">
         <v>18</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="CZ18" s="62"/>
       <c r="DA18" s="62"/>
     </row>
-    <row r="19" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>110</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="CZ19" s="62"/>
       <c r="DA19" s="62"/>
     </row>
-    <row r="20" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="CZ20" s="62"/>
       <c r="DA20" s="62"/>
     </row>
-    <row r="21" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
@@ -8441,7 +8441,7 @@
       <c r="CZ21" s="62"/>
       <c r="DA21" s="62"/>
     </row>
-    <row r="22" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
@@ -8601,7 +8601,7 @@
       <c r="CZ22" s="62"/>
       <c r="DA22" s="62"/>
     </row>
-    <row r="23" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="CZ24" s="62"/>
       <c r="DA24" s="62"/>
     </row>
-    <row r="25" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
@@ -9038,7 +9038,7 @@
       <c r="CZ25" s="62"/>
       <c r="DA25" s="62"/>
     </row>
-    <row r="26" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="CZ27" s="62"/>
       <c r="DA27" s="62"/>
     </row>
-    <row r="28" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>248</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="CZ28" s="62"/>
       <c r="DA28" s="62"/>
     </row>
-    <row r="29" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -9490,7 +9490,7 @@
       <c r="CZ29" s="62"/>
       <c r="DA29" s="62"/>
     </row>
-    <row r="30" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B30" s="23" t="s">
         <v>186</v>
       </c>
@@ -9596,7 +9596,7 @@
       <c r="CZ30" s="62"/>
       <c r="DA30" s="62"/>
     </row>
-    <row r="31" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>115</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="CZ31" s="62"/>
       <c r="DA31" s="62"/>
     </row>
-    <row r="32" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B32" s="23" t="s">
         <v>203</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="CZ32" s="62"/>
       <c r="DA32" s="62"/>
     </row>
-    <row r="33" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B33" s="23" t="s">
         <v>145</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="CZ33" s="62"/>
       <c r="DA33" s="62"/>
     </row>
-    <row r="34" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>116</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="CZ34" s="62"/>
       <c r="DA34" s="62"/>
     </row>
-    <row r="35" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>117</v>
       </c>
@@ -10038,7 +10038,7 @@
       <c r="CZ35" s="62"/>
       <c r="DA35" s="62"/>
     </row>
-    <row r="36" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
@@ -10146,7 +10146,7 @@
       <c r="CZ36" s="62"/>
       <c r="DA36" s="62"/>
     </row>
-    <row r="37" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B37" s="23" t="s">
         <v>204</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="CZ37" s="62"/>
       <c r="DA37" s="62"/>
     </row>
-    <row r="38" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>119</v>
       </c>
@@ -10328,7 +10328,7 @@
       <c r="CZ38" s="62"/>
       <c r="DA38" s="62"/>
     </row>
-    <row r="39" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>120</v>
       </c>
@@ -10422,7 +10422,7 @@
       <c r="CZ39" s="62"/>
       <c r="DA39" s="62"/>
     </row>
-    <row r="40" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
@@ -10480,7 +10480,7 @@
       <c r="CZ40" s="62"/>
       <c r="DA40" s="62"/>
     </row>
-    <row r="41" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
         <v>205</v>
       </c>
@@ -10627,7 +10627,7 @@
       <c r="CZ41" s="62"/>
       <c r="DA41" s="62"/>
     </row>
-    <row r="42" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
         <v>206</v>
       </c>
@@ -10759,7 +10759,7 @@
       <c r="CZ42" s="62"/>
       <c r="DA42" s="62"/>
     </row>
-    <row r="43" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
         <v>207</v>
       </c>
@@ -10891,7 +10891,7 @@
       <c r="CZ43" s="62"/>
       <c r="DA43" s="62"/>
     </row>
-    <row r="44" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B44" s="23" t="s">
         <v>208</v>
       </c>
@@ -11023,7 +11023,7 @@
       <c r="CZ44" s="62"/>
       <c r="DA44" s="62"/>
     </row>
-    <row r="45" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B45" s="23" t="s">
         <v>209</v>
       </c>
@@ -11165,7 +11165,7 @@
       <c r="CZ45" s="62"/>
       <c r="DA45" s="62"/>
     </row>
-    <row r="46" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B46" s="23" t="s">
         <v>387</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B47" s="23" t="s">
         <v>386</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="48" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B48" s="23" t="s">
         <v>385</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B49" s="23" t="s">
         <v>384</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="50" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B50" s="55" t="s">
         <v>463</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="CZ50" s="62"/>
       <c r="DA50" s="62"/>
     </row>
-    <row r="51" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B51" s="55" t="s">
         <v>545</v>
       </c>
@@ -11871,7 +11871,7 @@
       <c r="CZ51" s="62"/>
       <c r="DA51" s="62"/>
     </row>
-    <row r="52" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B52" s="23" t="s">
         <v>383</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>23700</v>
       </c>
     </row>
-    <row r="53" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B53" s="23" t="s">
         <v>382</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>41700</v>
       </c>
     </row>
-    <row r="54" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B54" s="23" t="s">
         <v>381</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="55" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B55" s="23" t="s">
         <v>380</v>
       </c>
@@ -12376,11 +12376,11 @@
         <v>27600</v>
       </c>
       <c r="CH55" s="34">
-        <f t="shared" ref="CH47:CH80" si="29">SUM(BY55:CB55)/$CB$1</f>
+        <f t="shared" ref="CH55:CH78" si="29">SUM(BY55:CB55)/$CB$1</f>
         <v>698.61111111111109</v>
       </c>
       <c r="CI55" s="34">
-        <f t="shared" ref="CI49:CI96" si="30">SUM(CD55:CG55)/$CF$1</f>
+        <f t="shared" ref="CI55:CI94" si="30">SUM(CD55:CG55)/$CF$1</f>
         <v>826.97368421052636</v>
       </c>
       <c r="CJ55" s="34"/>
@@ -12404,7 +12404,7 @@
         <v>104800</v>
       </c>
     </row>
-    <row r="56" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B56" s="23" t="s">
         <v>379</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>423200</v>
       </c>
     </row>
-    <row r="57" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B57" s="23" t="s">
         <v>378</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="58" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B58" s="23" t="s">
         <v>377</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B59" s="23" t="s">
         <v>376</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="60" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B60" s="23" t="s">
         <v>375</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="61" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B61" s="55" t="s">
         <v>544</v>
       </c>
@@ -13156,7 +13156,7 @@
       <c r="CZ61" s="62"/>
       <c r="DA61" s="62"/>
     </row>
-    <row r="62" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B62" s="23" t="s">
         <v>374</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="63" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B63" s="23" t="s">
         <v>373</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="64" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B64" s="23" t="s">
         <v>372</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>54600</v>
       </c>
     </row>
-    <row r="65" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B65" s="23" t="s">
         <v>371</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>109500</v>
       </c>
     </row>
-    <row r="66" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B66" s="23" t="s">
         <v>370</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>87300</v>
       </c>
     </row>
-    <row r="67" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B67" s="23" t="s">
         <v>369</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>39100</v>
       </c>
     </row>
-    <row r="68" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B68" s="23" t="s">
         <v>368</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row r="69" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B69" s="23" t="s">
         <v>367</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>644600</v>
       </c>
     </row>
-    <row r="70" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B70" s="23" t="s">
         <v>366</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="71" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
         <v>365</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="72" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B72" s="23" t="s">
         <v>364</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>17100</v>
       </c>
     </row>
-    <row r="73" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B73" s="23" t="s">
         <v>363</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="74" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B74" s="55" t="s">
         <v>542</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="CZ74" s="62"/>
       <c r="DA74" s="62"/>
     </row>
-    <row r="75" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
         <v>362</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="76" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B76" s="23" t="s">
         <v>361</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>73600</v>
       </c>
     </row>
-    <row r="77" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
         <v>360</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>91500</v>
       </c>
     </row>
-    <row r="78" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B78" s="23" t="s">
         <v>359</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>178600</v>
       </c>
     </row>
-    <row r="79" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B79" s="23" t="s">
         <v>358</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="80" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
         <v>357</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B81" s="23" t="s">
         <v>356</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B82" s="23" t="s">
         <v>355</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="83" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B83" s="23" t="s">
         <v>354</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="84" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B84" s="55" t="s">
         <v>543</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="CZ84" s="62"/>
       <c r="DA84" s="62"/>
     </row>
-    <row r="85" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B85" s="23" t="s">
         <v>353</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>14300</v>
       </c>
       <c r="CH85" s="34">
-        <f t="shared" ref="CH80:CH96" si="40">SUM(BY85:CB85)/$CB$1</f>
+        <f t="shared" ref="CH85:CH94" si="40">SUM(BY85:CB85)/$CB$1</f>
         <v>472.22222222222223</v>
       </c>
       <c r="CI85" s="34">
@@ -16307,7 +16307,7 @@
         <v>66400</v>
       </c>
     </row>
-    <row r="86" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B86" s="23" t="s">
         <v>352</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>122900</v>
       </c>
     </row>
-    <row r="87" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B87" s="23" t="s">
         <v>351</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="88" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B88" s="23" t="s">
         <v>350</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B89" s="23" t="s">
         <v>349</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="90" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B90" s="55" t="s">
         <v>541</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="CZ90" s="62"/>
       <c r="DA90" s="62"/>
     </row>
-    <row r="91" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B91" s="23" t="s">
         <v>348</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B92" s="23" t="s">
         <v>347</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>29100</v>
       </c>
     </row>
-    <row r="93" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B93" s="23" t="s">
         <v>346</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="94" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B94" s="23" t="s">
         <v>345</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>118400</v>
       </c>
     </row>
-    <row r="95" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B95" s="23" t="s">
         <v>344</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>119300</v>
       </c>
     </row>
-    <row r="96" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:106" x14ac:dyDescent="0.2">
       <c r="B96" s="23" t="s">
         <v>338</v>
       </c>
@@ -17717,20 +17717,44 @@
       <c r="CO96" s="34"/>
       <c r="CP96" s="34"/>
       <c r="CQ96" s="34"/>
+      <c r="CR96" s="34">
+        <v>27800</v>
+      </c>
+      <c r="CS96" s="34">
+        <v>86200</v>
+      </c>
+      <c r="CT96" s="34">
+        <v>143200</v>
+      </c>
+      <c r="CU96" s="14">
+        <v>201400</v>
+      </c>
+      <c r="CV96" s="14">
+        <v>269200</v>
+      </c>
+      <c r="CW96" s="14">
+        <v>347200</v>
+      </c>
+      <c r="CX96" s="14">
+        <v>429281</v>
+      </c>
       <c r="CY96" s="62">
-        <f t="shared" ref="CY96" si="62">SUM(BR96:BU96)</f>
+        <f>SUM(BR96:BU96)</f>
         <v>521800</v>
       </c>
       <c r="CZ96" s="62">
-        <f t="shared" ref="CZ96" si="63">SUM(BV96:BY96)</f>
+        <f t="shared" ref="CZ96" si="62">SUM(BV96:BY96)</f>
         <v>702800</v>
       </c>
       <c r="DA96" s="62">
-        <f t="shared" ref="DA96" si="64">SUM(BZ96:CC96)</f>
+        <f t="shared" ref="DA96" si="63">SUM(BZ96:CC96)</f>
         <v>800900</v>
       </c>
-    </row>
-    <row r="97" spans="2:105" x14ac:dyDescent="0.25">
+      <c r="DB96" s="14">
+        <v>914000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B97" s="23"/>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
@@ -17815,7 +17839,7 @@
       <c r="CP97" s="34"/>
       <c r="CQ97" s="34"/>
     </row>
-    <row r="98" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B98" s="23" t="s">
         <v>210</v>
       </c>
@@ -17923,7 +17947,7 @@
         <v>335678</v>
       </c>
     </row>
-    <row r="99" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>69</v>
       </c>
@@ -18020,7 +18044,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="100" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>63</v>
       </c>
@@ -18109,7 +18133,7 @@
       <c r="CP100" s="34"/>
       <c r="CQ100" s="34"/>
     </row>
-    <row r="101" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>71</v>
       </c>
@@ -18196,7 +18220,7 @@
       <c r="CP101" s="34"/>
       <c r="CQ101" s="34"/>
     </row>
-    <row r="102" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:105" x14ac:dyDescent="0.2">
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
@@ -18248,7 +18272,7 @@
       <c r="AM102" s="34"/>
       <c r="AN102" s="34"/>
     </row>
-    <row r="103" spans="2:105" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:105" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="16" t="s">
         <v>56</v>
       </c>
@@ -18385,67 +18409,67 @@
       <c r="BP103" s="32"/>
       <c r="BQ103" s="32"/>
       <c r="BR103" s="32">
-        <f t="shared" ref="BR103:CG103" si="65">SUM(BR4:BR96)</f>
+        <f t="shared" ref="BR103:CG103" si="64">SUM(BR4:BR96)</f>
         <v>745200</v>
       </c>
       <c r="BS103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>759600</v>
       </c>
       <c r="BT103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>814600</v>
       </c>
       <c r="BU103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>760900</v>
       </c>
       <c r="BV103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>889000</v>
       </c>
       <c r="BW103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>924200</v>
       </c>
       <c r="BX103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1014900</v>
       </c>
       <c r="BY103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>863700</v>
       </c>
       <c r="BZ103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1058600</v>
       </c>
       <c r="CA103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1038600</v>
       </c>
       <c r="CB103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1112200</v>
       </c>
       <c r="CC103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1030400</v>
       </c>
       <c r="CD103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1208000</v>
       </c>
       <c r="CE103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1094200</v>
       </c>
       <c r="CF103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1059100</v>
       </c>
       <c r="CG103" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>964100</v>
       </c>
       <c r="CH103" s="32"/>
@@ -18488,7 +18512,7 @@
         <v>4291478</v>
       </c>
     </row>
-    <row r="104" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>57</v>
       </c>
@@ -18676,89 +18700,89 @@
         <v>1244072</v>
       </c>
     </row>
-    <row r="105" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C105" s="34"/>
       <c r="F105" s="34">
-        <f t="shared" ref="F105:P105" si="66">F103-F104</f>
+        <f t="shared" ref="F105:P105" si="65">F103-F104</f>
         <v>294641</v>
       </c>
       <c r="G105" s="34">
+        <f t="shared" si="65"/>
+        <v>273736</v>
+      </c>
+      <c r="H105" s="34">
+        <f t="shared" si="65"/>
+        <v>293576</v>
+      </c>
+      <c r="I105" s="34">
+        <f t="shared" si="65"/>
+        <v>234218</v>
+      </c>
+      <c r="J105" s="34">
+        <f t="shared" si="65"/>
+        <v>318253</v>
+      </c>
+      <c r="K105" s="34">
+        <f t="shared" si="65"/>
+        <v>338178</v>
+      </c>
+      <c r="L105" s="34">
+        <f t="shared" si="65"/>
+        <v>325059</v>
+      </c>
+      <c r="M105" s="34">
+        <f t="shared" si="65"/>
+        <v>267303</v>
+      </c>
+      <c r="N105" s="34">
+        <f t="shared" si="65"/>
+        <v>307641</v>
+      </c>
+      <c r="O105" s="34">
+        <f t="shared" si="65"/>
+        <v>307430</v>
+      </c>
+      <c r="P105" s="34">
+        <f t="shared" si="65"/>
+        <v>298246</v>
+      </c>
+      <c r="Q105" s="34">
+        <f t="shared" ref="Q105:Y105" si="66">Q103-Q104</f>
+        <v>267584</v>
+      </c>
+      <c r="R105" s="34">
         <f t="shared" si="66"/>
-        <v>273736</v>
-      </c>
-      <c r="H105" s="34">
+        <v>286396</v>
+      </c>
+      <c r="S105" s="34">
         <f t="shared" si="66"/>
-        <v>293576</v>
-      </c>
-      <c r="I105" s="34">
+        <v>277046</v>
+      </c>
+      <c r="T105" s="34">
         <f t="shared" si="66"/>
-        <v>234218</v>
-      </c>
-      <c r="J105" s="34">
+        <v>282993</v>
+      </c>
+      <c r="U105" s="34">
         <f t="shared" si="66"/>
-        <v>318253</v>
-      </c>
-      <c r="K105" s="34">
+        <v>259764.89</v>
+      </c>
+      <c r="V105" s="34">
         <f t="shared" si="66"/>
-        <v>338178</v>
-      </c>
-      <c r="L105" s="34">
+        <v>236210.32820000005</v>
+      </c>
+      <c r="W105" s="34">
         <f t="shared" si="66"/>
-        <v>325059</v>
-      </c>
-      <c r="M105" s="34">
+        <v>231802.27978600003</v>
+      </c>
+      <c r="X105" s="34">
         <f t="shared" si="66"/>
-        <v>267303</v>
-      </c>
-      <c r="N105" s="34">
+        <v>231330.65541278003</v>
+      </c>
+      <c r="Y105" s="34">
         <f t="shared" si="66"/>
-        <v>307641</v>
-      </c>
-      <c r="O105" s="34">
-        <f t="shared" si="66"/>
-        <v>307430</v>
-      </c>
-      <c r="P105" s="34">
-        <f t="shared" si="66"/>
-        <v>298246</v>
-      </c>
-      <c r="Q105" s="34">
-        <f t="shared" ref="Q105:Y105" si="67">Q103-Q104</f>
-        <v>267584</v>
-      </c>
-      <c r="R105" s="34">
-        <f t="shared" si="67"/>
-        <v>286396</v>
-      </c>
-      <c r="S105" s="34">
-        <f t="shared" si="67"/>
-        <v>277046</v>
-      </c>
-      <c r="T105" s="34">
-        <f t="shared" si="67"/>
-        <v>282993</v>
-      </c>
-      <c r="U105" s="34">
-        <f t="shared" si="67"/>
-        <v>259764.89</v>
-      </c>
-      <c r="V105" s="34">
-        <f t="shared" si="67"/>
-        <v>236210.32820000005</v>
-      </c>
-      <c r="W105" s="34">
-        <f t="shared" si="67"/>
-        <v>231802.27978600003</v>
-      </c>
-      <c r="X105" s="34">
-        <f t="shared" si="67"/>
-        <v>231330.65541278003</v>
-      </c>
-      <c r="Y105" s="34">
-        <f t="shared" si="67"/>
         <v>235919.77362739941</v>
       </c>
       <c r="Z105" s="34"/>
@@ -18875,7 +18899,7 @@
         <v>2783406</v>
       </c>
     </row>
-    <row r="106" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>59</v>
       </c>
@@ -19055,7 +19079,7 @@
         <v>997309</v>
       </c>
     </row>
-    <row r="107" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>89</v>
       </c>
@@ -19215,7 +19239,7 @@
         <v>633325</v>
       </c>
     </row>
-    <row r="108" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B108" s="23" t="s">
         <v>185</v>
       </c>
@@ -19346,19 +19370,19 @@
       <c r="BX108" s="34"/>
       <c r="BY108" s="34"/>
       <c r="BZ108" s="34">
-        <f t="shared" ref="BZ108:CC108" si="68">+BZ106+BZ107</f>
+        <f t="shared" ref="BZ108:CC108" si="67">+BZ106+BZ107</f>
         <v>410800</v>
       </c>
       <c r="CA108" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="CB108" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="CC108" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="CD108" s="34">
@@ -19390,7 +19414,7 @@
         <v>1630634</v>
       </c>
     </row>
-    <row r="109" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>81</v>
       </c>
@@ -19409,67 +19433,67 @@
       </c>
       <c r="I109" s="34"/>
       <c r="J109" s="34">
-        <f t="shared" ref="J109:O109" si="69">J105-J108</f>
+        <f t="shared" ref="J109:O109" si="68">J105-J108</f>
         <v>-27236</v>
       </c>
       <c r="K109" s="34">
+        <f t="shared" si="68"/>
+        <v>112266</v>
+      </c>
+      <c r="L109" s="34">
+        <f t="shared" si="68"/>
+        <v>154854</v>
+      </c>
+      <c r="M109" s="34">
+        <f t="shared" si="68"/>
+        <v>66584</v>
+      </c>
+      <c r="N109" s="34">
+        <f t="shared" si="68"/>
+        <v>125630</v>
+      </c>
+      <c r="O109" s="34">
+        <f t="shared" si="68"/>
+        <v>116897</v>
+      </c>
+      <c r="P109" s="34">
+        <f t="shared" ref="P109:Y109" si="69">P105-P108</f>
+        <v>113694</v>
+      </c>
+      <c r="Q109" s="34">
         <f t="shared" si="69"/>
-        <v>112266</v>
-      </c>
-      <c r="L109" s="34">
+        <v>63990</v>
+      </c>
+      <c r="R109" s="34">
         <f t="shared" si="69"/>
-        <v>154854</v>
-      </c>
-      <c r="M109" s="34">
+        <v>112060</v>
+      </c>
+      <c r="S109" s="34">
         <f t="shared" si="69"/>
-        <v>66584</v>
-      </c>
-      <c r="N109" s="34">
+        <v>109558</v>
+      </c>
+      <c r="T109" s="34">
         <f t="shared" si="69"/>
-        <v>125630</v>
-      </c>
-      <c r="O109" s="34">
+        <v>110894</v>
+      </c>
+      <c r="U109" s="34">
         <f t="shared" si="69"/>
-        <v>116897</v>
-      </c>
-      <c r="P109" s="34">
-        <f t="shared" ref="P109:Y109" si="70">P105-P108</f>
-        <v>113694</v>
-      </c>
-      <c r="Q109" s="34">
-        <f t="shared" si="70"/>
-        <v>63990</v>
-      </c>
-      <c r="R109" s="34">
-        <f t="shared" si="70"/>
-        <v>112060</v>
-      </c>
-      <c r="S109" s="34">
-        <f t="shared" si="70"/>
-        <v>109558</v>
-      </c>
-      <c r="T109" s="34">
-        <f t="shared" si="70"/>
-        <v>110894</v>
-      </c>
-      <c r="U109" s="34">
-        <f t="shared" si="70"/>
         <v>96125.360000000015</v>
       </c>
       <c r="V109" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>81112.966800000053</v>
       </c>
       <c r="W109" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>78365.092464000045</v>
       </c>
       <c r="X109" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>77740.417704720021</v>
       </c>
       <c r="Y109" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>80268.838195875636</v>
       </c>
       <c r="Z109" s="34"/>
@@ -19536,19 +19560,19 @@
       <c r="BX109" s="34"/>
       <c r="BY109" s="34"/>
       <c r="BZ109" s="34">
-        <f t="shared" ref="BZ109:CC109" si="71">+BZ105-BZ108</f>
+        <f t="shared" ref="BZ109:CC109" si="70">+BZ105-BZ108</f>
         <v>326700</v>
       </c>
       <c r="CA109" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="CB109" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="CC109" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="CD109" s="34">
@@ -19595,7 +19619,7 @@
         <v>1152772</v>
       </c>
     </row>
-    <row r="110" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>80</v>
       </c>
@@ -19752,7 +19776,7 @@
         <v>-226608</v>
       </c>
     </row>
-    <row r="111" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>82</v>
       </c>
@@ -19765,67 +19789,67 @@
       </c>
       <c r="I111" s="34"/>
       <c r="J111" s="34">
-        <f t="shared" ref="J111:O111" si="72">+J109+J110</f>
+        <f t="shared" ref="J111:O111" si="71">+J109+J110</f>
         <v>-10595</v>
       </c>
       <c r="K111" s="34">
+        <f t="shared" si="71"/>
+        <v>108025</v>
+      </c>
+      <c r="L111" s="34">
+        <f t="shared" si="71"/>
+        <v>154728</v>
+      </c>
+      <c r="M111" s="34">
+        <f t="shared" si="71"/>
+        <v>75271</v>
+      </c>
+      <c r="N111" s="34">
+        <f t="shared" si="71"/>
+        <v>134667</v>
+      </c>
+      <c r="O111" s="34">
+        <f t="shared" si="71"/>
+        <v>116279</v>
+      </c>
+      <c r="P111" s="34">
+        <f t="shared" ref="P111:Y111" si="72">+P109+P110</f>
+        <v>118314</v>
+      </c>
+      <c r="Q111" s="34">
         <f t="shared" si="72"/>
-        <v>108025</v>
-      </c>
-      <c r="L111" s="34">
+        <v>46568</v>
+      </c>
+      <c r="R111" s="34">
         <f t="shared" si="72"/>
-        <v>154728</v>
-      </c>
-      <c r="M111" s="34">
+        <v>108634</v>
+      </c>
+      <c r="S111" s="34">
         <f t="shared" si="72"/>
-        <v>75271</v>
-      </c>
-      <c r="N111" s="34">
+        <v>116839</v>
+      </c>
+      <c r="T111" s="34">
         <f t="shared" si="72"/>
-        <v>134667</v>
-      </c>
-      <c r="O111" s="34">
+        <v>118327</v>
+      </c>
+      <c r="U111" s="34">
         <f t="shared" si="72"/>
-        <v>116279</v>
-      </c>
-      <c r="P111" s="34">
-        <f t="shared" ref="P111:Y111" si="73">+P109+P110</f>
-        <v>118314</v>
-      </c>
-      <c r="Q111" s="34">
-        <f t="shared" si="73"/>
-        <v>46568</v>
-      </c>
-      <c r="R111" s="34">
-        <f t="shared" si="73"/>
-        <v>108634</v>
-      </c>
-      <c r="S111" s="34">
-        <f t="shared" si="73"/>
-        <v>116839</v>
-      </c>
-      <c r="T111" s="34">
-        <f t="shared" si="73"/>
-        <v>118327</v>
-      </c>
-      <c r="U111" s="34">
-        <f t="shared" si="73"/>
         <v>96125.360000000015</v>
       </c>
       <c r="V111" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>81112.966800000053</v>
       </c>
       <c r="W111" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>78365.092464000045</v>
       </c>
       <c r="X111" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>77740.417704720021</v>
       </c>
       <c r="Y111" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>80268.838195875636</v>
       </c>
       <c r="Z111" s="34"/>
@@ -19898,27 +19922,27 @@
       <c r="CJ111" s="34"/>
       <c r="CK111" s="34"/>
       <c r="CL111" s="34">
-        <f t="shared" ref="CL111:CQ111" si="74">CL109+CL110</f>
+        <f t="shared" ref="CL111:CQ111" si="73">CL109+CL110</f>
         <v>306468</v>
       </c>
       <c r="CM111" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>420211</v>
       </c>
       <c r="CN111" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>398853.78000000014</v>
       </c>
       <c r="CO111" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1221765.6685174166</v>
       </c>
       <c r="CP111" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>761009.74741921551</v>
       </c>
       <c r="CQ111" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>664638.26037839882</v>
       </c>
       <c r="CY111" s="14">
@@ -19930,7 +19954,7 @@
         <v>926164</v>
       </c>
     </row>
-    <row r="112" spans="2:105" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:105" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>60</v>
       </c>
@@ -20083,27 +20107,27 @@
       <c r="CJ112" s="34"/>
       <c r="CK112" s="34"/>
       <c r="CL112" s="34">
-        <f t="shared" ref="CL112:CQ112" si="75">CL111*0.3</f>
+        <f t="shared" ref="CL112:CQ112" si="74">CL111*0.3</f>
         <v>91940.4</v>
       </c>
       <c r="CM112" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>126063.29999999999</v>
       </c>
       <c r="CN112" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>119656.13400000003</v>
       </c>
       <c r="CO112" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>366529.70055522496</v>
       </c>
       <c r="CP112" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>228302.92422576464</v>
       </c>
       <c r="CQ112" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>199391.47811351964</v>
       </c>
       <c r="CY112" s="14">
@@ -20113,7 +20137,7 @@
         <v>58052</v>
       </c>
     </row>
-    <row r="113" spans="2:128" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:128" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="23" t="s">
         <v>100</v>
       </c>
@@ -20131,67 +20155,67 @@
       </c>
       <c r="I113" s="39"/>
       <c r="J113" s="39">
-        <f t="shared" ref="J113:O113" si="76">+J111-J112</f>
+        <f t="shared" ref="J113:O113" si="75">+J111-J112</f>
         <v>-75897</v>
       </c>
       <c r="K113" s="39">
+        <f t="shared" si="75"/>
+        <v>68848</v>
+      </c>
+      <c r="L113" s="39">
+        <f t="shared" si="75"/>
+        <v>100217</v>
+      </c>
+      <c r="M113" s="39">
+        <f t="shared" si="75"/>
+        <v>70100</v>
+      </c>
+      <c r="N113" s="39">
+        <f t="shared" si="75"/>
+        <v>109667</v>
+      </c>
+      <c r="O113" s="39">
+        <f t="shared" si="75"/>
+        <v>76008</v>
+      </c>
+      <c r="P113" s="39">
+        <f t="shared" ref="P113:Y113" si="76">+P111-P112</f>
+        <v>73474</v>
+      </c>
+      <c r="Q113" s="39">
         <f t="shared" si="76"/>
-        <v>68848</v>
-      </c>
-      <c r="L113" s="39">
+        <v>38594</v>
+      </c>
+      <c r="R113" s="39">
         <f t="shared" si="76"/>
-        <v>100217</v>
-      </c>
-      <c r="M113" s="39">
+        <v>68911</v>
+      </c>
+      <c r="S113" s="39">
         <f t="shared" si="76"/>
-        <v>70100</v>
-      </c>
-      <c r="N113" s="39">
+        <v>76748</v>
+      </c>
+      <c r="T113" s="39">
         <f t="shared" si="76"/>
-        <v>109667</v>
-      </c>
-      <c r="O113" s="39">
+        <v>79430</v>
+      </c>
+      <c r="U113" s="39">
         <f t="shared" si="76"/>
-        <v>76008</v>
-      </c>
-      <c r="P113" s="39">
-        <f t="shared" ref="P113:Y113" si="77">+P111-P112</f>
-        <v>73474</v>
-      </c>
-      <c r="Q113" s="39">
-        <f t="shared" si="77"/>
-        <v>38594</v>
-      </c>
-      <c r="R113" s="39">
-        <f t="shared" si="77"/>
-        <v>68911</v>
-      </c>
-      <c r="S113" s="39">
-        <f t="shared" si="77"/>
-        <v>76748</v>
-      </c>
-      <c r="T113" s="39">
-        <f t="shared" si="77"/>
-        <v>79430</v>
-      </c>
-      <c r="U113" s="39">
-        <f t="shared" si="77"/>
         <v>64526.586026857782</v>
       </c>
       <c r="V113" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>54449.136316512748</v>
       </c>
       <c r="W113" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>52604.555971295849</v>
       </c>
       <c r="X113" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>52185.227194857565</v>
       </c>
       <c r="Y113" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>53882.493580487979</v>
       </c>
       <c r="Z113" s="39"/>
@@ -20270,27 +20294,27 @@
       <c r="CJ113" s="39"/>
       <c r="CK113" s="39"/>
       <c r="CL113" s="39">
-        <f t="shared" ref="CL113:CQ113" si="78">CL111-CL112</f>
+        <f t="shared" ref="CL113:CQ113" si="77">CL111-CL112</f>
         <v>214527.6</v>
       </c>
       <c r="CM113" s="39">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>294147.7</v>
       </c>
       <c r="CN113" s="39">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>279197.64600000012</v>
       </c>
       <c r="CO113" s="39">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>855235.96796219167</v>
       </c>
       <c r="CP113" s="39">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>532706.82319345092</v>
       </c>
       <c r="CQ113" s="39">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>465246.78226487921</v>
       </c>
       <c r="CR113" s="39"/>
@@ -20333,48 +20357,48 @@
       <c r="DW113" s="39"/>
       <c r="DX113" s="39"/>
     </row>
-    <row r="114" spans="2:128" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:128" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>191</v>
       </c>
       <c r="P114" s="43">
-        <f t="shared" ref="P114:Y114" si="79">P113/P115</f>
+        <f t="shared" ref="P114:Y114" si="78">P113/P115</f>
         <v>93.044389856955931</v>
       </c>
       <c r="Q114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>48.891542189611854</v>
       </c>
       <c r="R114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>87.297638592225283</v>
       </c>
       <c r="S114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>97.225684820654266</v>
       </c>
       <c r="T114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>100.62328849357075</v>
       </c>
       <c r="U114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>81.743387653099859</v>
       </c>
       <c r="V114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>68.977101243890502</v>
       </c>
       <c r="W114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>66.640355175322824</v>
       </c>
       <c r="X114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>66.109142277863356</v>
       </c>
       <c r="Y114" s="43">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>68.259268491784169</v>
       </c>
       <c r="Z114" s="43"/>
@@ -20401,27 +20425,27 @@
         <v>-393.15270618556701</v>
       </c>
       <c r="CL114" s="43">
-        <f t="shared" ref="CL114:CQ114" si="80">CL113/CL115</f>
+        <f t="shared" ref="CL114:CQ114" si="79">CL113/CL115</f>
         <v>271.77295998375644</v>
       </c>
       <c r="CM114" s="43">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>372.63135939594991</v>
       </c>
       <c r="CN114" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>353.69237416824694</v>
       </c>
       <c r="CO114" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1083.4276159428157</v>
       </c>
       <c r="CP114" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>674.84215476127656</v>
       </c>
       <c r="CQ114" s="46">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>589.38261604613422</v>
       </c>
       <c r="CZ114" s="47">
@@ -20429,7 +20453,7 @@
         <v>559.35051546391753</v>
       </c>
     </row>
-    <row r="115" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="14" t="s">
         <v>48</v>
       </c>
@@ -20450,39 +20474,39 @@
         <v>789.66609500000004</v>
       </c>
       <c r="Q115" s="34">
-        <f t="shared" ref="Q115:Y115" si="81">789.666095-0.286209</f>
+        <f t="shared" ref="Q115:Y115" si="80">789.666095-0.286209</f>
         <v>789.37988600000006</v>
       </c>
       <c r="R115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="S115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="T115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="U115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="V115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="W115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="X115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="Y115" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>789.37988600000006</v>
       </c>
       <c r="Z115" s="34"/>
@@ -20584,12 +20608,12 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="116" spans="2:128" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:128" x14ac:dyDescent="0.2">
       <c r="P116" s="39"/>
       <c r="CS116" s="45"/>
       <c r="CT116" s="48"/>
     </row>
-    <row r="117" spans="2:128" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:128" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="16" t="s">
         <v>61</v>
       </c>
@@ -20606,59 +20630,59 @@
       <c r="J117" s="40"/>
       <c r="K117" s="40"/>
       <c r="L117" s="40">
-        <f t="shared" ref="L117:R117" si="82">+L103/H103-1</f>
+        <f t="shared" ref="L117:R117" si="81">+L103/H103-1</f>
         <v>7.6423277428904202E-2</v>
       </c>
       <c r="M117" s="40">
+        <f t="shared" si="81"/>
+        <v>0.12307146538510461</v>
+      </c>
+      <c r="N117" s="40">
+        <f t="shared" si="81"/>
+        <v>-4.5111758940337254E-2</v>
+      </c>
+      <c r="O117" s="40">
+        <f t="shared" si="81"/>
+        <v>-8.2345542693761709E-2</v>
+      </c>
+      <c r="P117" s="40">
+        <f t="shared" si="81"/>
+        <v>-5.8457610838683616E-2</v>
+      </c>
+      <c r="Q117" s="40">
+        <f t="shared" si="81"/>
+        <v>7.280020025270062E-3</v>
+      </c>
+      <c r="R117" s="40">
+        <f t="shared" si="81"/>
+        <v>-5.1398897558427081E-2</v>
+      </c>
+      <c r="S117" s="40">
+        <f t="shared" ref="S117:Y117" si="82">+S103/O103-1</f>
+        <v>-5.8301193170348209E-2</v>
+      </c>
+      <c r="T117" s="40">
         <f t="shared" si="82"/>
-        <v>0.12307146538510461</v>
-      </c>
-      <c r="N117" s="40">
+        <v>-1.4464701350092479E-2</v>
+      </c>
+      <c r="U117" s="40">
         <f t="shared" si="82"/>
-        <v>-4.5111758940337254E-2</v>
-      </c>
-      <c r="O117" s="40">
+        <v>-1.9584697901596781E-3</v>
+      </c>
+      <c r="V117" s="40">
         <f t="shared" si="82"/>
-        <v>-8.2345542693761709E-2</v>
-      </c>
-      <c r="P117" s="40">
+        <v>-0.14668048222799557</v>
+      </c>
+      <c r="W117" s="40">
         <f t="shared" si="82"/>
-        <v>-5.8457610838683616E-2</v>
-      </c>
-      <c r="Q117" s="40">
+        <v>-0.1508632013922776</v>
+      </c>
+      <c r="X117" s="40">
         <f t="shared" si="82"/>
-        <v>7.280020025270062E-3</v>
-      </c>
-      <c r="R117" s="40">
+        <v>-0.18162535891911025</v>
+      </c>
+      <c r="Y117" s="40">
         <f t="shared" si="82"/>
-        <v>-5.1398897558427081E-2</v>
-      </c>
-      <c r="S117" s="40">
-        <f t="shared" ref="S117:Y117" si="83">+S103/O103-1</f>
-        <v>-5.8301193170348209E-2</v>
-      </c>
-      <c r="T117" s="40">
-        <f t="shared" si="83"/>
-        <v>-1.4464701350092479E-2</v>
-      </c>
-      <c r="U117" s="40">
-        <f t="shared" si="83"/>
-        <v>-1.9584697901596781E-3</v>
-      </c>
-      <c r="V117" s="40">
-        <f t="shared" si="83"/>
-        <v>-0.14668048222799557</v>
-      </c>
-      <c r="W117" s="40">
-        <f t="shared" si="83"/>
-        <v>-0.1508632013922776</v>
-      </c>
-      <c r="X117" s="40">
-        <f t="shared" si="83"/>
-        <v>-0.18162535891911025</v>
-      </c>
-      <c r="Y117" s="40">
-        <f t="shared" si="83"/>
         <v>-9.1794993436567163E-2</v>
       </c>
       <c r="Z117" s="40"/>
@@ -20716,35 +20740,35 @@
       <c r="BT117" s="40"/>
       <c r="BU117" s="40"/>
       <c r="BV117" s="40">
-        <f t="shared" ref="BV117:CC117" si="84">BV103/BR103-1</f>
+        <f t="shared" ref="BV117:CC117" si="83">BV103/BR103-1</f>
         <v>0.19296833064949004</v>
       </c>
       <c r="BW117" s="40">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.21669299631384931</v>
       </c>
       <c r="BX117" s="40">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.24588755217284564</v>
       </c>
       <c r="BY117" s="40">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.13510316730187943</v>
       </c>
       <c r="BZ117" s="40">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.19077615298087736</v>
       </c>
       <c r="CA117" s="40">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.12378273101060366</v>
       </c>
       <c r="CB117" s="40">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>9.5871514434919591E-2</v>
       </c>
       <c r="CC117" s="40">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.19300683107560501</v>
       </c>
       <c r="CD117" s="40"/>
@@ -20791,7 +20815,7 @@
         <v>6.5549706292622911E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:128" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:128" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>111</v>
       </c>
@@ -20902,7 +20926,7 @@
       <c r="CS118" s="45"/>
       <c r="CT118" s="34"/>
     </row>
-    <row r="119" spans="2:128" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:128" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>77</v>
       </c>
@@ -20919,51 +20943,51 @@
         <v>0.79877670515764609</v>
       </c>
       <c r="I119" s="38">
-        <f t="shared" ref="I119:T119" si="85">I105/I103</f>
+        <f t="shared" ref="I119:T119" si="84">I105/I103</f>
         <v>0.78385686842792213</v>
       </c>
       <c r="J119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.80188519984579765</v>
       </c>
       <c r="K119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.82430367158307316</v>
       </c>
       <c r="L119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.82164450735554317</v>
       </c>
       <c r="M119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.79654981285908411</v>
       </c>
       <c r="N119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.81176694100169666</v>
       </c>
       <c r="O119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.816599198886516</v>
       </c>
       <c r="P119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.80067544893461084</v>
       </c>
       <c r="Q119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.79162413947144983</v>
       </c>
       <c r="R119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.79665533605193906</v>
       </c>
       <c r="S119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.7814524704747452</v>
       </c>
       <c r="T119" s="38">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.7708775418477003</v>
       </c>
       <c r="U119" s="38">
@@ -21064,7 +21088,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="120" spans="2:128" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:128" x14ac:dyDescent="0.2">
       <c r="B120" s="23" t="s">
         <v>243</v>
       </c>
@@ -21077,24 +21101,24 @@
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
       <c r="N120" s="38">
-        <f t="shared" ref="N120:S120" si="86">N106/N103</f>
+        <f t="shared" ref="N120:S120" si="85">N106/N103</f>
         <v>0.30910582964137667</v>
       </c>
       <c r="O120" s="38">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.31826464369574686</v>
       </c>
       <c r="P120" s="38">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.29760022335990205</v>
       </c>
       <c r="Q120" s="38"/>
       <c r="R120" s="38">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.31216585349570791</v>
       </c>
       <c r="S120" s="38">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.29731444995726702</v>
       </c>
       <c r="T120" s="38">
@@ -21180,68 +21204,68 @@
       <c r="CJ120" s="38"/>
       <c r="CK120" s="38"/>
       <c r="CL120" s="38">
-        <f t="shared" ref="CL120:CQ120" si="87">CL106/CL103</f>
+        <f t="shared" ref="CL120:CQ120" si="86">CL106/CL103</f>
         <v>0.61256123499677573</v>
       </c>
       <c r="CM120" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.3167128819583005</v>
       </c>
       <c r="CN120" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.32137580335718002</v>
       </c>
       <c r="CO120" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.18738876445470129</v>
       </c>
       <c r="CP120" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.22860735464370757</v>
       </c>
       <c r="CQ120" s="38">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0.21442560759358531</v>
       </c>
     </row>
-    <row r="121" spans="2:128" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:128" x14ac:dyDescent="0.2">
       <c r="B121" s="55" t="s">
         <v>536</v>
       </c>
       <c r="K121" s="52">
-        <f t="shared" ref="K121:S121" si="88">K112/K111</f>
+        <f t="shared" ref="K121:S121" si="87">K112/K111</f>
         <v>0.3626660495255728</v>
       </c>
       <c r="L121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.35230210433793496</v>
       </c>
       <c r="M121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>6.8698436316775385E-2</v>
       </c>
       <c r="N121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.18564310484379989</v>
       </c>
       <c r="O121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.34633080779848469</v>
       </c>
       <c r="P121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.37899149720235981</v>
       </c>
       <c r="Q121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.17123346504037107</v>
       </c>
       <c r="R121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.3656590017858129</v>
       </c>
       <c r="S121" s="52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.34313029039960974</v>
       </c>
       <c r="T121" s="52">
@@ -21284,7 +21308,7 @@
       <c r="AM121" s="38"/>
       <c r="AN121" s="38"/>
     </row>
-    <row r="122" spans="2:128" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:128" x14ac:dyDescent="0.2">
       <c r="B122" s="23" t="s">
         <v>53</v>
       </c>
@@ -21352,13 +21376,13 @@
         <v>3108387.2194205225</v>
       </c>
     </row>
-    <row r="123" spans="2:128" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:128" x14ac:dyDescent="0.2">
       <c r="CN123" s="34"/>
       <c r="CO123" s="34"/>
       <c r="CP123" s="34"/>
       <c r="CQ123" s="34"/>
     </row>
-    <row r="124" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="14" t="s">
         <v>219</v>
       </c>
@@ -21463,7 +21487,7 @@
       <c r="CS124" s="34"/>
       <c r="CT124" s="34"/>
     </row>
-    <row r="125" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="14" t="s">
         <v>220</v>
       </c>
@@ -21568,7 +21592,7 @@
       <c r="CS125" s="34"/>
       <c r="CT125" s="34"/>
     </row>
-    <row r="126" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:128" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="14" t="s">
         <v>221</v>
       </c>
@@ -21675,7 +21699,7 @@
       <c r="CS126" s="34"/>
       <c r="CT126" s="34"/>
     </row>
-    <row r="130" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B130" s="23" t="s">
         <v>238</v>
       </c>
@@ -21691,7 +21715,7 @@
         <v>162300</v>
       </c>
     </row>
-    <row r="131" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B131" s="23" t="s">
         <v>240</v>
       </c>
@@ -21707,7 +21731,7 @@
         <v>112800</v>
       </c>
     </row>
-    <row r="132" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B132" s="23" t="s">
         <v>239</v>
       </c>
@@ -21723,7 +21747,7 @@
         <v>36700</v>
       </c>
     </row>
-    <row r="133" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:104" x14ac:dyDescent="0.2">
       <c r="R133" s="34">
         <f>+R44+R8+R14+R22</f>
         <v>5200</v>
@@ -21736,7 +21760,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="135" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B135" s="55" t="s">
         <v>50</v>
       </c>
@@ -21745,7 +21769,7 @@
         <v>932561</v>
       </c>
     </row>
-    <row r="136" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B136" s="55" t="s">
         <v>426</v>
       </c>
@@ -21753,7 +21777,7 @@
         <v>649429</v>
       </c>
     </row>
-    <row r="137" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B137" s="55" t="s">
         <v>427</v>
       </c>
@@ -21761,7 +21785,7 @@
         <v>986457</v>
       </c>
     </row>
-    <row r="138" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B138" s="55" t="s">
         <v>428</v>
       </c>
@@ -21770,7 +21794,7 @@
         <v>176103</v>
       </c>
     </row>
-    <row r="139" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B139" s="55" t="s">
         <v>60</v>
       </c>
@@ -21779,7 +21803,7 @@
         <v>398267</v>
       </c>
     </row>
-    <row r="140" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B140" s="55" t="s">
         <v>432</v>
       </c>
@@ -21787,7 +21811,7 @@
         <v>63325</v>
       </c>
     </row>
-    <row r="141" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B141" s="55" t="s">
         <v>431</v>
       </c>
@@ -21795,7 +21819,7 @@
         <v>1691229</v>
       </c>
     </row>
-    <row r="142" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B142" s="55" t="s">
         <v>430</v>
       </c>
@@ -21804,7 +21828,7 @@
         <v>9060380</v>
       </c>
     </row>
-    <row r="143" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B143" s="55" t="s">
         <v>429</v>
       </c>
@@ -21813,7 +21837,7 @@
         <v>13957751</v>
       </c>
     </row>
-    <row r="145" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B145" s="55" t="s">
         <v>51</v>
       </c>
@@ -21822,7 +21846,7 @@
         <v>5102147</v>
       </c>
     </row>
-    <row r="146" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B146" s="55" t="s">
         <v>433</v>
       </c>
@@ -21831,7 +21855,7 @@
         <v>566833</v>
       </c>
     </row>
-    <row r="147" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B147" s="55" t="s">
         <v>434</v>
       </c>
@@ -21840,7 +21864,7 @@
         <v>564329</v>
       </c>
     </row>
-    <row r="148" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B148" s="55" t="s">
         <v>60</v>
       </c>
@@ -21849,7 +21873,7 @@
         <v>527555</v>
       </c>
     </row>
-    <row r="149" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B149" s="55" t="s">
         <v>435</v>
       </c>
@@ -21857,7 +21881,7 @@
         <v>649233</v>
       </c>
     </row>
-    <row r="150" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B150" s="55" t="s">
         <v>436</v>
       </c>
@@ -21865,7 +21889,7 @@
         <v>65389</v>
       </c>
     </row>
-    <row r="151" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B151" s="55" t="s">
         <v>437</v>
       </c>
@@ -21873,7 +21897,7 @@
         <v>127594</v>
       </c>
     </row>
-    <row r="152" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B152" s="55" t="s">
         <v>438</v>
       </c>
@@ -21881,7 +21905,7 @@
         <v>6354672</v>
       </c>
     </row>
-    <row r="153" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:104" x14ac:dyDescent="0.2">
       <c r="B153" s="55" t="s">
         <v>439</v>
       </c>
@@ -21909,17 +21933,17 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="54" t="s">
         <v>388</v>
       </c>
@@ -21927,7 +21951,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>389</v>
       </c>
@@ -21935,7 +21959,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
@@ -21957,19 +21981,19 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -21977,7 +22001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -21985,7 +22009,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -21993,7 +22017,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -22017,18 +22041,18 @@
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -22052,19 +22076,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -22072,7 +22096,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -22080,7 +22104,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -22104,19 +22128,19 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -22124,7 +22148,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -22132,7 +22156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -22140,7 +22164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -22148,7 +22172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
@@ -22156,7 +22180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
@@ -22164,7 +22188,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -22172,22 +22196,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>126</v>
       </c>
@@ -22209,19 +22233,19 @@
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -22229,7 +22253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -22237,7 +22261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
@@ -22245,7 +22269,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -22253,7 +22277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
@@ -22261,7 +22285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -22269,12 +22293,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -22291,21 +22315,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -22419,10 +22428,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F1151A-1AB6-4EC7-9FA4-3C32E8ADF199}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C6D05E-B893-4633-AB73-49C81EE81FC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22437,17 +22469,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C6D05E-B893-4633-AB73-49C81EE81FC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F1151A-1AB6-4EC7-9FA4-3C32E8ADF199}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>